--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A638A5-1D8E-4766-9019-20E456479E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8E613FC-F2C5-448E-BF83-699D72F80372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -962,6 +953,15 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2155,6 +2155,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3569,7 +3570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3580,29 +3581,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3618,23 +3619,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3642,15 +3644,15 @@
         <v>791575204</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3674,15 +3676,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3696,25 +3698,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3723,16 +3725,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3741,7 +3743,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3890,7 +3892,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C29" s="151">
         <v>25220</v>
@@ -4186,11 +4188,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.1683023262083235E-2</v>
+        <v>1.070365377930879E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4235,7 +4237,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4665,7 +4667,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4673,21 +4675,21 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="237" t="s">
         <v>253</v>
-      </c>
-      <c r="C87" s="237" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4701,10 +4703,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4753,7 +4755,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4774,7 +4776,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4792,7 +4794,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4899,7 +4901,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4935,8 +4937,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4979,17 +4981,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0710.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.36</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4999,40 +5001,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>京东方精电</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>791575204</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>4242.8430934400003</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>11699.481303746616</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5055,11 +5057,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5079,7 +5081,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5122,7 +5124,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5172,7 +5174,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5212,7 +5214,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5246,7 +5248,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.89487452961039748</v>
+        <v>2.6488460036982735</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5262,12 +5264,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-9.3152968848614598E-2</v>
+        <v>-3.147039090374823E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5294,7 +5296,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.1683023262083235E-2</v>
+        <v>1.070365377930879E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5311,12 +5313,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>263</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5335,11 +5337,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="271">
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="271"/>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5387,7 +5389,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5397,7 +5399,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5424,7 +5426,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6370,12 +6372,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6861,7 +6860,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6912,7 +6911,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6963,7 +6962,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7014,7 +7013,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7116,7 +7115,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7269,7 +7268,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8340,7 +8339,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8409,7 +8408,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8613,7 +8612,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10436,11 +10435,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-166157.4546478613</v>
+        <v>-252717.06069765193</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0376192327080107</v>
+        <v>1.0572169448299369</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11507,7 +11506,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11527,11 +11526,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
+        <v>2.6488460036982735</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>59393</v>
+        <v>157322.91069765156</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11563,11 +11562,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>635839</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11578,11 +11577,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11594,11 +11593,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11812,19 +11811,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11834,18 +11833,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11922,7 +11921,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11982,7 +11981,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12045,7 +12044,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12075,7 +12074,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12212,17 +12211,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.3152968848614598E-2</v>
+        <v>-3.147039090374823E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.3152968848614598E-2</v>
+        <v>-3.147039090374823E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-9.3152968848614598E-2</v>
+        <v>-3.147039090374823E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12263,17 +12262,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1683023262083235E-2</v>
+        <v>1.070365377930879E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1683023262083235E-2</v>
+        <v>1.070365377930879E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.1683023262083235E-2</v>
+        <v>1.070365377930879E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12304,15 +12303,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12333,14 +12332,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-4.2530371050136164</v>
+        <v>-5.5056497291479722</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-4.2530371050136164</v>
+        <v>-5.5056497291479722</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12358,14 +12357,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.756705229213861</v>
+        <v>2.3173581589912424</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.756705229213861</v>
+        <v>2.3173581589912424</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12391,7 +12390,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12408,21 +12407,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1673794.5576962442</v>
+        <v>-2166763.7327608438</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.11451110297316</v>
+        <v>-2.7372809580337027</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.11451110297316</v>
+        <v>-2.7372809580337027</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.0041751188427277</v>
+        <v>-3.8889705217647252</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12432,14 +12431,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>63755.871878902115</v>
+        <v>157322.91069765156</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.0543038180996521E-2</v>
+        <v>0.19874663822548383</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12471,7 +12470,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-1737550.4295751464</v>
+        <v>-2324086.6434584954</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12515,7 +12514,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12532,27 +12531,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1084908.994655048</v>
+        <v>912002.73568742129</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1649842501342305</v>
+        <v>0.97931607940350307</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3705697060402713</v>
+        <v>1.1521365640041212</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3705697060402713</v>
+        <v>1.1521365640041212</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3705697060402713</v>
+        <v>1.1521365640041212</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9472261950936836</v>
+        <v>1.6368890162001988</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12576,7 +12575,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12593,27 +12592,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>542454.497327524</v>
+        <v>456001.36784371064</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.58249212506711523</v>
+        <v>0.48965803970175154</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.68528485302013564</v>
+        <v>0.57606828200206062</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.68528485302013564</v>
+        <v>0.57606828200206062</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.68528485302013564</v>
+        <v>0.57606828200206062</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.97361309754684178</v>
+        <v>0.81844450810009939</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8E613FC-F2C5-448E-BF83-699D72F80372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38A01A2A-6296-4C35-BAC5-F3EEC206E021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -937,6 +934,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1520,7 +1521,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2156,6 +2157,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3570,7 +3574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3584,12 +3588,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>261</v>
@@ -3597,7 +3601,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>262</v>
@@ -3621,7 +3625,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
@@ -3630,7 +3634,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>263</v>
@@ -3638,7 +3642,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>791575204</v>
@@ -3646,7 +3650,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>264</v>
@@ -3670,7 +3674,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3678,7 +3682,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>265</v>
@@ -3695,7 +3699,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>266</v>
@@ -3704,16 +3708,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>267</v>
@@ -3722,7 +3726,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>267</v>
@@ -3731,7 +3735,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>266</v>
@@ -3740,7 +3744,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>268</v>
@@ -3892,7 +3896,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>25220</v>
@@ -4170,7 +4174,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <v>0.15820000000000001</v>
@@ -4188,11 +4192,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>1.070365377930879E-2</v>
+        <v>3.0604060681374581E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4237,13 +4241,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4647,7 +4651,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>4357429</v>
@@ -4667,7 +4671,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4675,26 +4679,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4703,10 +4707,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4755,7 +4759,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4776,7 +4780,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4794,7 +4798,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4851,7 +4855,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4938,7 +4942,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4979,19 +4983,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0710.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>5.55</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4999,42 +5003,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>京东方精电</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>791575204</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>11699.481303746616</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>4393.2423822000001</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5057,16 +5061,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5081,7 +5085,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736569960912068</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5091,40 +5095,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5137,29 +5141,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5169,12 +5173,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5184,7 +5188,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5192,7 +5196,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5206,7 +5210,7 @@
         <v>0.8649634921177769</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5214,7 +5218,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5225,14 +5229,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>7.2128562067984476E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5244,11 +5248,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>2.6488460036982735</v>
+        <v>0.9264238113194907</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5260,16 +5264,16 @@
         <v>2.3437755566327548E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-3.147039090374823E-2</v>
+        <v>260</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>-11.113500185462089</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5292,11 +5296,11 @@
         <v>-4.5622430706520396E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.070365377930879E-2</v>
+        <v>3.0604060681374581E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5313,12 +5317,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5337,31 +5341,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="272">
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="272"/>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5371,7 +5375,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5382,14 +5386,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5399,7 +5403,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5409,14 +5413,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5426,7 +5430,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5441,14 +5445,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6433,16 +6437,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6460,7 +6464,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6493,7 +6497,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6860,7 +6864,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6911,7 +6915,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6962,7 +6966,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7013,7 +7017,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7115,7 +7119,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7268,7 +7272,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8339,7 +8343,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8408,7 +8412,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8612,7 +8616,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10435,11 +10439,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-252717.06069765193</v>
+        <v>-166188.30650251944</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0572169448299369</v>
+        <v>1.0376262177879298</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10510,7 +10514,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11506,7 +11510,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11526,11 +11530,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>2.6488460036982735</v>
+        <v>1</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>157322.91069765156</v>
+        <v>59393</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11562,11 +11566,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>635839</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11577,11 +11581,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11593,11 +11597,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11811,19 +11815,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11833,18 +11837,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11921,7 +11925,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11981,7 +11985,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12044,7 +12048,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12074,7 +12078,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12207,28 +12211,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.147039090374823E-2</v>
+        <v>-8.9980652657758606E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.147039090374823E-2</v>
+        <v>-8.9980652657758606E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-3.147039090374823E-2</v>
+        <v>-8.9980652657758606E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12258,21 +12262,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.070365377930879E-2</v>
+        <v>3.0604060681374581E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.070365377930879E-2</v>
+        <v>3.0604060681374581E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.070365377930879E-2</v>
+        <v>3.0604060681374581E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12303,15 +12307,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12328,24 +12332,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-5.5056497291479722</v>
+        <v>-4.3287524862236832</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-5.5056497291479722</v>
+        <v>-4.3287524862236832</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12353,18 +12357,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.3173581589912424</v>
+        <v>2.742829346923044</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.3173581589912424</v>
+        <v>2.742829346923044</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12383,14 +12387,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12407,21 +12411,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2166763.7327608438</v>
+        <v>-1703592.5561322111</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.7372809580337027</v>
+        <v>-2.1521550290150464</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.7372809580337027</v>
+        <v>-2.1521550290150464</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.8889705217647252</v>
+        <v>-3.0576574324761627</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12431,14 +12435,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>157322.91069765156</v>
+        <v>63767.709968845047</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.19874663822548383</v>
+        <v>8.0557993285556545E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12470,7 +12474,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-2324086.6434584954</v>
+        <v>-1767360.2661010562</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12507,14 +12511,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12531,27 +12535,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>912002.73568742129</v>
+        <v>1079448.1026646572</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>0.97931607940350307</v>
+        <v>1.1591202991560086</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.1521365640041212</v>
+        <v>1.3636709401835396</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.1521365640041212</v>
+        <v>1.3636709401835396</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.1521365640041212</v>
+        <v>1.3636709401835396</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.6368890162001988</v>
+        <v>1.937424827435517</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12561,21 +12565,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12588,31 +12592,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>456001.36784371064</v>
+        <v>539724.05133232858</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.48965803970175154</v>
+        <v>0.57956014957800428</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.57606828200206062</v>
+        <v>0.68183547009176981</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.57606828200206062</v>
+        <v>0.68183547009176981</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.57606828200206062</v>
+        <v>0.68183547009176981</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.81844450810009939</v>
+        <v>0.96871241371775851</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38A01A2A-6296-4C35-BAC5-F3EEC206E021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C1FB87-46A8-4759-90AC-92BDF96596BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -963,6 +960,10 @@
   </si>
   <si>
     <t>Consumer Monopoly</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3588,28 +3589,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45593</v>
@@ -3617,7 +3618,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3625,24 +3626,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>791575204</v>
@@ -3650,15 +3651,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3666,7 +3667,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
@@ -3674,7 +3675,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3682,15 +3683,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3699,61 +3700,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3802,7 +3803,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>10760416</v>
@@ -3828,7 +3829,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>9307367</v>
@@ -3854,7 +3855,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>1606631</v>
@@ -3880,7 +3881,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3896,7 +3897,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>25220</v>
@@ -3922,7 +3923,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>5821</v>
@@ -3948,7 +3949,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151">
         <v>-563737</v>
@@ -3968,7 +3969,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151">
         <v>202110</v>
@@ -3994,7 +3995,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151">
         <v>506463</v>
@@ -4014,7 +4015,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -4030,7 +4031,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4046,7 +4047,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4062,7 +4063,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4078,7 +4079,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4094,7 +4095,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4110,7 +4111,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4126,7 +4127,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4142,7 +4143,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4158,7 +4159,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4174,7 +4175,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <v>0.15820000000000001</v>
@@ -4192,11 +4193,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>3.0604060681374581E-2</v>
+        <v>2.8610323842420144E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4241,21 +4242,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59">
         <v>3496104</v>
@@ -4267,7 +4268,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59">
         <v>41635</v>
@@ -4279,7 +4280,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59">
         <v>2820142</v>
@@ -4292,7 +4293,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59">
         <v>405832</v>
@@ -4304,7 +4305,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59">
         <v>0</v>
@@ -4316,7 +4317,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4329,7 +4330,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -4341,7 +4342,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59">
         <v>1802858</v>
@@ -4354,7 +4355,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59">
         <v>0</v>
@@ -4364,12 +4365,12 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59">
         <v>0</v>
@@ -4378,12 +4379,12 @@
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59">
         <v>5684</v>
@@ -4396,7 +4397,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120">
         <v>0</v>
@@ -4409,7 +4410,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59">
         <v>0</v>
@@ -4422,7 +4423,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59">
         <v>41883</v>
@@ -4435,7 +4436,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59">
         <v>0</v>
@@ -4448,7 +4449,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4461,7 +4462,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -4473,7 +4474,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59">
         <v>0</v>
@@ -4482,12 +4483,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59">
         <v>0</v>
@@ -4496,12 +4497,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59">
         <v>0</v>
@@ -4511,12 +4512,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59">
         <v>2128034</v>
@@ -4529,7 +4530,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -4542,7 +4543,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59">
         <v>27391</v>
@@ -4554,7 +4555,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59">
         <v>38865</v>
@@ -4567,7 +4568,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248">
         <v>0</v>
@@ -4579,7 +4580,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59">
         <v>174488</v>
@@ -4587,7 +4588,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59">
         <v>11884</v>
@@ -4595,19 +4596,19 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83">
         <v>5753095</v>
@@ -4615,7 +4616,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59">
         <v>432202</v>
@@ -4623,7 +4624,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59">
         <v>17265</v>
@@ -4631,19 +4632,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83">
         <v>638511</v>
@@ -4651,7 +4652,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59">
         <v>4357429</v>
@@ -4659,19 +4660,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4679,15 +4680,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4695,10 +4696,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4708,19 +4709,19 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4738,7 +4739,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4759,7 +4760,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4780,7 +4781,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4798,7 +4799,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4819,7 +4820,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4837,7 +4838,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4855,7 +4856,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4983,7 +4984,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4995,15 +4996,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.55</v>
+        <v>5.93</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -5012,7 +5013,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -5023,7 +5024,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -5032,11 +5033,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>4393.2423822000001</v>
+        <v>4694.0409597199996</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5044,7 +5045,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -5059,7 +5060,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -5070,7 +5071,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5082,10 +5083,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736569960912068</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5095,40 +5096,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5141,29 +5142,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5173,12 +5174,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5188,29 +5189,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.8649634921177769</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5218,7 +5219,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5229,58 +5230,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>7.2128562067984476E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.9264238113194907</v>
+        <v>0.99098251017537908</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>2.3437755566327548E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-11.113500185462089</v>
+        <v>-11.887954709343788</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>2.8284501268352451E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5289,44 +5290,44 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>-4.5622430706520396E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>3.0604060681374581E-2</v>
+        <v>2.8610323842420144E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -5351,21 +5352,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5375,7 +5376,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5386,14 +5387,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5403,7 +5404,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5413,14 +5414,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5430,7 +5431,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5445,14 +5446,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6432,21 +6433,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6457,14 +6458,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6486,7 +6487,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6497,7 +6498,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6508,7 +6509,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6558,7 +6559,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6609,7 +6610,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6660,7 +6661,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6711,7 +6712,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6762,7 +6763,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6813,7 +6814,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6864,7 +6865,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6915,7 +6916,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6966,7 +6967,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7017,7 +7018,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7068,7 +7069,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7119,7 +7120,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7170,7 +7171,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7221,7 +7222,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7272,7 +7273,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7323,7 +7324,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7374,7 +7375,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7425,7 +7426,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7476,7 +7477,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7527,7 +7528,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7578,7 +7579,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7629,7 +7630,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7680,7 +7681,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7731,7 +7732,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7782,7 +7783,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7833,7 +7834,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7884,7 +7885,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7935,7 +7936,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7986,7 +7987,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -8037,7 +8038,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8088,7 +8089,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8139,7 +8140,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8190,7 +8191,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8241,7 +8242,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8292,7 +8293,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8343,7 +8344,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8361,7 +8362,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8412,7 +8413,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8463,7 +8464,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8514,7 +8515,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8565,7 +8566,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8616,7 +8617,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8667,7 +8668,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8718,7 +8719,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8736,7 +8737,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8787,7 +8788,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8838,7 +8839,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8855,7 +8856,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8905,7 +8906,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8955,7 +8956,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -9005,7 +9006,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10364,7 +10365,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10374,12 +10375,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10393,7 +10394,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10403,7 +10404,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10421,10 +10422,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10434,21 +10435,21 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-166188.30650251944</v>
+        <v>-165999.16052276533</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0376262177879298</v>
+        <v>1.0375833937891916</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10459,7 +10460,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10471,7 +10472,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10489,7 +10490,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10508,32 +10509,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10550,7 +10551,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10561,7 +10562,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10578,7 +10579,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10589,7 +10590,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10606,7 +10607,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10617,7 +10618,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10634,7 +10635,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10645,7 +10646,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10662,7 +10663,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10672,7 +10673,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10694,7 +10695,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10716,7 +10717,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10737,7 +10738,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10762,7 +10763,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10789,7 +10790,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10810,7 +10811,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10827,7 +10828,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10839,13 +10840,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10867,7 +10868,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10887,7 +10888,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10896,7 +10897,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10916,7 +10917,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10929,7 +10930,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10949,7 +10950,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10962,7 +10963,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10979,7 +10980,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10995,7 +10996,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11004,7 +11005,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11020,7 +11021,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11030,7 +11031,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11047,7 +11048,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11057,7 +11058,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11074,7 +11075,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11084,7 +11085,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11104,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11114,7 +11115,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11131,7 +11132,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11141,7 +11142,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11167,7 +11168,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11194,7 +11195,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11221,7 +11222,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11242,7 +11243,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11263,7 +11264,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11284,7 +11285,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11305,7 +11306,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11322,7 +11323,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11340,7 +11341,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11359,7 +11360,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11378,7 +11379,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11395,7 +11396,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11408,7 +11409,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11425,7 +11426,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11438,7 +11439,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11455,7 +11456,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11465,7 +11466,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11482,7 +11483,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11498,14 +11499,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11517,12 +11518,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11552,7 +11553,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11563,7 +11564,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11578,7 +11579,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11589,12 +11590,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11618,11 +11619,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11632,7 +11633,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11653,7 +11654,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11674,7 +11675,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11695,7 +11696,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11710,7 +11711,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11741,11 +11742,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11755,7 +11756,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11776,7 +11777,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11791,7 +11792,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11813,7 +11814,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11821,15 +11822,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11838,22 +11839,22 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11874,7 +11875,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11904,7 +11905,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11925,7 +11926,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11955,7 +11956,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11985,7 +11986,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -12016,7 +12017,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12043,12 +12044,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12078,7 +12079,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12108,7 +12109,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12138,7 +12139,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12159,7 +12160,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12190,7 +12191,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12211,28 +12212,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.9980652657758606E-2</v>
+        <v>-8.4118759235683516E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.9980652657758606E-2</v>
+        <v>-8.4118759235683516E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.9980652657758606E-2</v>
+        <v>-8.4118759235683516E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12262,21 +12263,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0604060681374581E-2</v>
+        <v>2.8610323842420144E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0604060681374581E-2</v>
+        <v>2.8610323842420144E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>3.0604060681374581E-2</v>
+        <v>2.8610323842420144E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12293,27 +12294,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12332,24 +12333,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-4.3287524862236832</v>
+        <v>-4.4648911347549252</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-4.3287524862236832</v>
+        <v>-4.4648911347549252</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12357,18 +12358,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.742829346923044</v>
+        <v>2.7133096849500098</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.742829346923044</v>
+        <v>2.7133096849500098</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12387,69 +12388,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1703592.5561322111</v>
+        <v>-1757170.2991373444</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.1521550290150464</v>
+        <v>-2.2198399978397307</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.1521550290150464</v>
+        <v>-2.2198399978397307</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.0576574324761627</v>
+        <v>-3.153820322790077</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>63767.709968845047</v>
+        <v>63695.133226037025</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.0557993285556545E-2</v>
+        <v>8.046630680720139E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12470,11 +12471,11 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-1767360.2661010562</v>
+        <v>-1820865.4323633814</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12504,58 +12505,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1079448.1026646572</v>
+        <v>1067830.5577583944</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1591202991560086</v>
+        <v>1.1466452833641758</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3636709401835396</v>
+        <v>1.3489944510166774</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3636709401835396</v>
+        <v>1.3489944510166774</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3636709401835396</v>
+        <v>1.3489944510166774</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.937424827435517</v>
+        <v>1.9165733201887321</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12565,58 +12566,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>539724.05133232858</v>
+        <v>533915.2788791972</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.57956014957800428</v>
+        <v>0.57332264168208791</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.68183547009176981</v>
+        <v>0.67449722550833868</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.68183547009176981</v>
+        <v>0.67449722550833868</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.68183547009176981</v>
+        <v>0.67449722550833868</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.96871241371775851</v>
+        <v>0.95828666009436603</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12625,7 +12626,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C1FB87-46A8-4759-90AC-92BDF96596BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCBF36A2-2353-4A45-AD58-241A240BBD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.8610323842420144E-2</v>
+        <v>2.8657761178575124E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4906,7 +4906,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4996,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.93</v>
+        <v>5.92</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>4694.0409597199996</v>
+        <v>4686.1252076800001</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5086,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.99098251017537908</v>
+        <v>0.98934213184414921</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-11.887954709343788</v>
+        <v>-11.868276518147056</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8610323842420144E-2</v>
+        <v>2.8657761178575124E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10440,11 +10440,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-165999.16052276533</v>
+        <v>-165994.00009492278</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0375833937891916</v>
+        <v>1.0375822254315259</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12216,17 +12216,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4118759235683516E-2</v>
+        <v>-8.425823231123418E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4118759235683516E-2</v>
+        <v>-8.425823231123418E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4118759235683516E-2</v>
+        <v>-8.425823231123418E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12267,17 +12267,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8610323842420144E-2</v>
+        <v>2.8657761178575124E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8610323842420144E-2</v>
+        <v>2.8657761178575124E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8610323842420144E-2</v>
+        <v>2.8657761178575124E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12337,14 +12337,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-4.4648911347549252</v>
+        <v>-4.4613538418305341</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-4.4648911347549252</v>
+        <v>-4.4613538418305341</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12362,14 +12362,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.7133096849500098</v>
+        <v>2.7138510349225409</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.7133096849500098</v>
+        <v>2.7138510349225409</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12412,21 +12412,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1757170.2991373444</v>
+        <v>-1755778.1876886</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.2198399978397307</v>
+        <v>-2.2180813380917881</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.2198399978397307</v>
+        <v>-2.2180813380917881</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.153820322790077</v>
+        <v>-3.1513217207019393</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12436,14 +12436,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>63695.133226037025</v>
+        <v>63693.153130849205</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.046630680720139E-2</v>
+        <v>8.0463805345334191E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-1820865.4323633814</v>
+        <v>-1819471.3408194492</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12536,27 +12536,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1067830.5577583944</v>
+        <v>1068043.6075426918</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1466452833641758</v>
+        <v>1.146874057984373</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3489944510166774</v>
+        <v>1.3492635976286742</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3489944510166774</v>
+        <v>1.3492635976286742</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3489944510166774</v>
+        <v>1.3492635976286742</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9165733201887321</v>
+        <v>1.9169557081336073</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12597,27 +12597,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>533915.2788791972</v>
+        <v>534021.80377134588</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.57332264168208791</v>
+        <v>0.57343702899218651</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.67449722550833868</v>
+        <v>0.6746317988143371</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.67449722550833868</v>
+        <v>0.6746317988143371</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.67449722550833868</v>
+        <v>0.6746317988143371</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.95828666009436603</v>
+        <v>0.95847785406680364</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCBF36A2-2353-4A45-AD58-241A240BBD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E29F0370-5A3A-47FE-B28D-B12E5742DC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.8657761178575124E-2</v>
+        <v>2.8660433919311647E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5086,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.98934213184414921</v>
+        <v>0.98924987033039891</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-11.868276518147056</v>
+        <v>-11.867169737063012</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8657761178575124E-2</v>
+        <v>2.8660433919311647E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10440,11 +10440,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-165994.00009492278</v>
+        <v>-166009.48137845041</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0375822254315259</v>
+        <v>1.0375857305045235</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12216,17 +12216,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.425823231123418E-2</v>
+        <v>-8.4266090580708969E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.425823231123418E-2</v>
+        <v>-8.4266090580708969E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.425823231123418E-2</v>
+        <v>-8.4266090580708969E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12267,17 +12267,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8657761178575124E-2</v>
+        <v>2.8660433919311647E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8657761178575124E-2</v>
+        <v>2.8660433919311647E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8657761178575124E-2</v>
+        <v>2.8660433919311647E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12337,14 +12337,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-4.4613538418305341</v>
+        <v>-4.4615784900461541</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-4.4613538418305341</v>
+        <v>-4.4615784900461541</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12362,14 +12362,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.7138510349225409</v>
+        <v>2.7141394000315344</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.7138510349225409</v>
+        <v>2.7141394000315344</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12412,21 +12412,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1755778.1876886</v>
+        <v>-1755866.5986174061</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.2180813380917881</v>
+        <v>-2.2181930279582205</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.2180813380917881</v>
+        <v>-2.2181930279582205</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.1513217207019393</v>
+        <v>-3.1514804032065107</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12436,14 +12436,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>63693.153130849205</v>
+        <v>63699.093416412674</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.0463805345334191E-2</v>
+        <v>8.0471309730935775E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-1819471.3408194492</v>
+        <v>-1819565.6920338187</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12536,27 +12536,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1068043.6075426918</v>
+        <v>1068157.0944317419</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.146874057984373</v>
+        <v>1.1469959211443168</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3492635976286742</v>
+        <v>1.3494069660521375</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3492635976286742</v>
+        <v>1.3494069660521375</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3492635976286742</v>
+        <v>1.3494069660521375</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9169557081336073</v>
+        <v>1.9171593977004251</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12597,27 +12597,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>534021.80377134588</v>
+        <v>534078.54721587093</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.57343702899218651</v>
+        <v>0.57349796057215841</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.6746317988143371</v>
+        <v>0.67470348302606875</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.6746317988143371</v>
+        <v>0.67470348302606875</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.6746317988143371</v>
+        <v>0.67470348302606875</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.95847785406680364</v>
+        <v>0.95857969885021255</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E29F0370-5A3A-47FE-B28D-B12E5742DC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C11C98-BA07-4827-8C52-329F07329338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.8660433919311647E-2</v>
+        <v>2.8659543005732799E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5086,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.98924987033039891</v>
+        <v>0.98928062225628166</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-11.867169737063012</v>
+        <v>-11.867538641154018</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8660433919311647E-2</v>
+        <v>2.8659543005732799E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10440,11 +10440,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-166009.48137845041</v>
+        <v>-166004.32095060786</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0375857305045235</v>
+        <v>1.0375845621468576</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12216,17 +12216,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4266090580708969E-2</v>
+        <v>-8.4263471157550687E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4266090580708969E-2</v>
+        <v>-8.4263471157550687E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4266090580708969E-2</v>
+        <v>-8.4263471157550687E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12267,17 +12267,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8660433919311647E-2</v>
+        <v>2.8659543005732799E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8660433919311647E-2</v>
+        <v>2.8659543005732799E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8660433919311647E-2</v>
+        <v>2.8659543005732799E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12337,14 +12337,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-4.4615784900461541</v>
+        <v>-4.4615036105447237</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-4.4615784900461541</v>
+        <v>-4.4615036105447237</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12362,14 +12362,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.7141394000315344</v>
+        <v>2.7140432775571059</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.7141394000315344</v>
+        <v>2.7140432775571059</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12412,21 +12412,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1755866.5986174061</v>
+        <v>-1755837.1295817776</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.2181930279582205</v>
+        <v>-2.2181557996121586</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.2181930279582205</v>
+        <v>-2.2181557996121586</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.1514804032065107</v>
+        <v>-3.1514275113248846</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12436,14 +12436,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>63699.093416412674</v>
+        <v>63697.113321224846</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.0471309730935775E-2</v>
+        <v>8.0468808269068576E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-1819565.6920338187</v>
+        <v>-1819534.2429030025</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12536,27 +12536,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1068157.0944317419</v>
+        <v>1068119.2651651264</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1469959211443168</v>
+        <v>1.1469552997649954</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3494069660521375</v>
+        <v>1.3493591761941124</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3494069660521375</v>
+        <v>1.3493591761941124</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3494069660521375</v>
+        <v>1.3493591761941124</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9171593977004251</v>
+        <v>1.9170915006332447</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12597,27 +12597,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>534078.54721587093</v>
+        <v>534059.63258256321</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.57349796057215841</v>
+        <v>0.57347764988249772</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.67470348302606875</v>
+        <v>0.67467958809705619</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.67470348302606875</v>
+        <v>0.67467958809705619</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.67470348302606875</v>
+        <v>0.67467958809705619</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.95857969885021255</v>
+        <v>0.95854575031662237</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C11C98-BA07-4827-8C52-329F07329338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4959C51-58B9-4445-8CD2-18F5471C79EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.8659543005732799E-2</v>
+        <v>2.8658652092153961E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4698,7 +4698,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -5086,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.98928062225628166</v>
+        <v>0.98931137609413899</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-11.867538641154018</v>
+        <v>-11.86790756818132</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8659543005732799E-2</v>
+        <v>2.8658652092153961E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10440,11 +10440,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-166004.32095060786</v>
+        <v>-165999.16052276533</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0375845621468576</v>
+        <v>1.0375833937891916</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12216,17 +12216,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4263471157550687E-2</v>
+        <v>-8.4260851734392433E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4263471157550687E-2</v>
+        <v>-8.4260851734392433E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4263471157550687E-2</v>
+        <v>-8.4260851734392433E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12267,17 +12267,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8659543005732799E-2</v>
+        <v>2.8658652092153961E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8659543005732799E-2</v>
+        <v>2.8658652092153961E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8659543005732799E-2</v>
+        <v>2.8658652092153961E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12337,14 +12337,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-4.4615036105447237</v>
+        <v>-4.4614287278062044</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-4.4615036105447237</v>
+        <v>-4.4614287278062044</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12362,14 +12362,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.7140432775571059</v>
+        <v>2.7139471558541102</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.7140432775571059</v>
+        <v>2.7139471558541102</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12412,21 +12412,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1755837.1295817776</v>
+        <v>-1755807.6592721839</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.2181557996121586</v>
+        <v>-2.2181185696566916</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.2181557996121586</v>
+        <v>-2.2181185696566916</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.1514275113248846</v>
+        <v>-3.151374617156709</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12436,14 +12436,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>63697.113321224846</v>
+        <v>63695.133226037025</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.0468808269068576E-2</v>
+        <v>8.046630680720139E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-1819534.2429030025</v>
+        <v>-1819502.7924982209</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12536,27 +12536,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1068119.2651651264</v>
+        <v>1068081.4362021105</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1469552997649954</v>
+        <v>1.1469146787116817</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3493591761941124</v>
+        <v>1.3493113867196256</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3493591761941124</v>
+        <v>1.3493113867196256</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3493591761941124</v>
+        <v>1.3493113867196256</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9170915006332447</v>
+        <v>1.9170236041109736</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12597,27 +12597,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>534059.63258256321</v>
+        <v>534040.71810105524</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.57347764988249772</v>
+        <v>0.57345733935584087</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.67467958809705619</v>
+        <v>0.67465569335981279</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.67467958809705619</v>
+        <v>0.67465569335981279</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.67467958809705619</v>
+        <v>0.67465569335981279</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.95854575031662237</v>
+        <v>0.95851180205548681</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4959C51-58B9-4445-8CD2-18F5471C79EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADD5B69E-7791-49C2-82DE-472CEC3F6171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.8658652092153961E-2</v>
+        <v>2.8657761178575124E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5086,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5135,7 +5135,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5182,7 +5182,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.98931137609413899</v>
+        <v>0.98934213184414921</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-11.86790756818132</v>
+        <v>-11.868276518147056</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8658652092153961E-2</v>
+        <v>2.8657761178575124E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10440,11 +10440,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-165999.16052276533</v>
+        <v>-165994.00009492278</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0375833937891916</v>
+        <v>1.0375822254315259</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12216,17 +12216,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4260851734392433E-2</v>
+        <v>-8.425823231123418E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4260851734392433E-2</v>
+        <v>-8.425823231123418E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.4260851734392433E-2</v>
+        <v>-8.425823231123418E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12267,17 +12267,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8658652092153961E-2</v>
+        <v>2.8657761178575124E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8658652092153961E-2</v>
+        <v>2.8657761178575124E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8658652092153961E-2</v>
+        <v>2.8657761178575124E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12337,14 +12337,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-4.4614287278062044</v>
+        <v>-4.6553257479970789</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-4.4614287278062044</v>
+        <v>-4.6553257479970789</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12362,14 +12362,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.7139471558541102</v>
+        <v>2.8318445581800424</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.7139471558541102</v>
+        <v>2.8318445581800424</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12412,21 +12412,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1755807.6592721839</v>
+        <v>-1832116.3697620174</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.2181185696566916</v>
+        <v>-2.314519657139257</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.2181185696566916</v>
+        <v>-2.314519657139257</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.151374617156709</v>
+        <v>-3.3347367014255824</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12436,14 +12436,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>63695.133226037025</v>
+        <v>63693.153130849205</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.046630680720139E-2</v>
+        <v>8.0463805345334191E-2</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12475,7 +12475,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-1819502.7924982209</v>
+        <v>-1895809.5228928665</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12536,27 +12536,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1068081.4362021105</v>
+        <v>1114480.2861315042</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1469146787116817</v>
+        <v>1.1967381474619545</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3493113867196256</v>
+        <v>1.4079272323081817</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3493113867196256</v>
+        <v>1.4079272323081817</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3493113867196256</v>
+        <v>1.4079272323081817</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9170236041109736</v>
+        <v>2.0285274311810042</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12597,27 +12597,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>534040.71810105524</v>
+        <v>557240.14306575211</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.57345733935584087</v>
+        <v>0.59836907373097725</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.67465569335981279</v>
+        <v>0.70396361615409087</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.67465569335981279</v>
+        <v>0.70396361615409087</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.67465569335981279</v>
+        <v>0.70396361615409087</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.95851180205548681</v>
+        <v>1.0142637155905021</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADD5B69E-7791-49C2-82DE-472CEC3F6171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC06F8C-9988-4907-B416-FF2B64B4DBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -983,6 +983,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1522,7 +1523,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1822,9 +1823,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2159,6 +2157,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3600,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3604,7 +3608,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3612,7 +3616,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45593</v>
       </c>
     </row>
@@ -3620,7 +3624,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3628,16 +3632,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3645,7 +3649,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>791575204</v>
       </c>
     </row>
@@ -3653,101 +3657,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>267</v>
       </c>
       <c r="D22" s="24"/>
@@ -3805,437 +3809,437 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>10760416</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>10722361</v>
       </c>
-      <c r="E25" s="150">
+      <c r="E25" s="149">
         <v>7737943</v>
       </c>
-      <c r="F25" s="150">
+      <c r="F25" s="149">
         <v>4526914</v>
       </c>
-      <c r="G25" s="150">
+      <c r="G25" s="149">
         <v>3573978</v>
       </c>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>9307367</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>9290616</v>
       </c>
-      <c r="E26" s="151">
+      <c r="E26" s="150">
         <v>7340712</v>
       </c>
-      <c r="F26" s="151">
+      <c r="F26" s="150">
         <v>4204600</v>
       </c>
-      <c r="G26" s="151">
+      <c r="G26" s="150">
         <v>3214958</v>
       </c>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>1606631</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>1290315</v>
       </c>
-      <c r="E27" s="151">
+      <c r="E27" s="150">
         <v>359473</v>
       </c>
-      <c r="F27" s="151">
+      <c r="F27" s="150">
         <v>228660</v>
       </c>
-      <c r="G27" s="151">
+      <c r="G27" s="150">
         <v>271638</v>
       </c>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>25220</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>12361</v>
       </c>
-      <c r="E29" s="151">
+      <c r="E29" s="150">
         <v>915</v>
       </c>
-      <c r="F29" s="151">
+      <c r="F29" s="150">
         <v>578</v>
       </c>
-      <c r="G29" s="151">
+      <c r="G29" s="150">
         <v>538</v>
       </c>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>5821</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>22881</v>
       </c>
-      <c r="E30" s="151">
+      <c r="E30" s="150">
         <v>313201</v>
       </c>
-      <c r="F30" s="151">
+      <c r="F30" s="150">
         <v>57218</v>
       </c>
-      <c r="G30" s="151">
+      <c r="G30" s="150">
         <v>0</v>
       </c>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151">
+      <c r="C31" s="150">
         <v>-563737</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="150">
         <v>193859</v>
       </c>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <v>202110</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <v>165770</v>
       </c>
-      <c r="E32" s="151">
+      <c r="E32" s="150">
         <v>247000</v>
       </c>
-      <c r="F32" s="151">
+      <c r="F32" s="150">
         <v>56000</v>
       </c>
-      <c r="G32" s="151">
+      <c r="G32" s="150">
         <v>69000</v>
       </c>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <v>506463</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <v>1177151</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <v>0.15820000000000001</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.8657761178575124E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>2.9223832441472461E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4244,10 +4248,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4364,7 +4368,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4378,7 +4382,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4402,7 +4406,7 @@
       <c r="C59" s="120">
         <v>0</v>
       </c>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4482,7 +4486,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4496,7 +4500,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4511,7 +4515,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4567,16 +4571,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248">
+      <c r="C72" s="247">
         <v>0</v>
       </c>
-      <c r="D72" s="249">
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4674,7 +4678,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4682,19 +4686,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4708,14 +4713,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4727,12 +4732,12 @@
         <f>C25</f>
         <v>10760416</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>10760416</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>10760416</v>
       </c>
@@ -4745,15 +4750,15 @@
         <f>C26</f>
         <v>9307367</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.8649634921177769</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>9307367</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>9307367</v>
       </c>
@@ -4766,15 +4771,15 @@
         <f>C27+C28</f>
         <v>1606631</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.14930937614307849</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>1606631</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>1606631</v>
       </c>
@@ -4787,12 +4792,12 @@
         <f>C29</f>
         <v>25220</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>25220</v>
       </c>
@@ -4805,15 +4810,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>304353</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>304353</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>304353</v>
       </c>
@@ -4826,12 +4831,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4844,12 +4849,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>7761.333333333333</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>7.2128562067984476E-4</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>7761.3333333333321</v>
       </c>
@@ -4858,16 +4863,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0.15820000000000001</v>
       </c>
@@ -4986,17 +4991,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0710.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.92</v>
+        <v>5.8</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5006,40 +5011,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>京东方精电</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>791575204</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4686.1252076800001</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>4591.1361832000002</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5047,11 +5052,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -5062,22 +5067,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0006</v>
       </c>
@@ -5086,7 +5091,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5106,7 +5111,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5117,7 +5122,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5131,11 +5136,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5144,7 +5149,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5155,7 +5160,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5166,10 +5171,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5181,10 +5186,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5206,14 +5211,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.8649634921177769</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5221,7 +5226,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.14930937614307849</v>
       </c>
@@ -5232,7 +5237,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>7.2128562067984476E-4</v>
       </c>
@@ -5244,46 +5249,46 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.98934213184414921</v>
+        <v>0.97017838420317271</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.3437755566327548E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-11.868276518147056</v>
+        <v>-11.638385716162158</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>2.8284501268352451E-2</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>-0.3401182340583494</v>
       </c>
@@ -5292,16 +5297,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>-4.5622430706520396E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.8657761178575124E-2</v>
+        <v>2.9223832441472461E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5320,10 +5325,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5342,11 +5347,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="273">
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="273"/>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5358,17 +5363,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5378,7 +5383,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -5386,17 +5391,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5406,24 +5411,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5433,7 +5438,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5452,10 +5457,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6437,16 +6442,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6460,11 +6465,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6497,7 +6502,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6561,47 +6566,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>10760416</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>10722361</v>
       </c>
-      <c r="E6" s="201">
+      <c r="E6" s="200">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>7737943</v>
       </c>
-      <c r="F6" s="201">
+      <c r="F6" s="200">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>4526914</v>
       </c>
-      <c r="G6" s="201">
+      <c r="G6" s="200">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>3573978</v>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6663,47 +6668,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>9307367</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>9290616</v>
       </c>
-      <c r="E8" s="200">
+      <c r="E8" s="199">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>7340712</v>
       </c>
-      <c r="F8" s="200">
+      <c r="F8" s="199">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>4204600</v>
       </c>
-      <c r="G8" s="200">
+      <c r="G8" s="199">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>3214958</v>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6714,47 +6719,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1453049</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>1431745</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="151">
         <f t="shared" si="2"/>
         <v>397231</v>
       </c>
-      <c r="F9" s="152">
+      <c r="F9" s="151">
         <f t="shared" si="2"/>
         <v>322314</v>
       </c>
-      <c r="G9" s="152">
+      <c r="G9" s="151">
         <f t="shared" si="2"/>
         <v>359020</v>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6765,47 +6770,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1606631</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1290315</v>
       </c>
-      <c r="E10" s="200">
+      <c r="E10" s="199">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>359473</v>
       </c>
-      <c r="F10" s="200">
+      <c r="F10" s="199">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>228660</v>
       </c>
-      <c r="G10" s="200">
+      <c r="G10" s="199">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>271638</v>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6816,47 +6821,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6867,47 +6872,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>7761.333333333333</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>30508</v>
       </c>
-      <c r="E12" s="200">
+      <c r="E12" s="199">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>417601.33333333331</v>
       </c>
-      <c r="F12" s="200">
+      <c r="F12" s="199">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>76290.666666666672</v>
       </c>
-      <c r="G12" s="200">
+      <c r="G12" s="199">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6915,50 +6920,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-1.4994153881535188E-2</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>1.0344923100425363E-2</v>
       </c>
-      <c r="E13" s="230">
+      <c r="E13" s="229">
         <f t="shared" si="3"/>
         <v>-4.9088411911710039E-2</v>
       </c>
-      <c r="F13" s="230">
+      <c r="F13" s="229">
         <f t="shared" si="3"/>
         <v>3.8355783505790763E-3</v>
       </c>
-      <c r="G13" s="230">
+      <c r="G13" s="229">
         <f t="shared" si="3"/>
         <v>2.4449506963948854E-2</v>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6966,50 +6971,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-161343.33333333334</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>110922</v>
       </c>
-      <c r="E14" s="231">
+      <c r="E14" s="230">
         <f t="shared" si="4"/>
         <v>-379843.33333333331</v>
       </c>
-      <c r="F14" s="231">
+      <c r="F14" s="230">
         <f t="shared" si="4"/>
         <v>17363.333333333328</v>
       </c>
-      <c r="G14" s="231">
+      <c r="G14" s="230">
         <f t="shared" si="4"/>
         <v>87382</v>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -7017,50 +7022,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233" t="str">
+      <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v>Turn</v>
       </c>
-      <c r="F15" s="233">
+      <c r="F15" s="232">
         <f t="shared" si="5"/>
         <v>-0.80129393544055605</v>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7071,47 +7076,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-563737</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>193859</v>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7122,47 +7127,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>25220</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>12361</v>
       </c>
-      <c r="E17" s="200">
+      <c r="E17" s="199">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>915</v>
       </c>
-      <c r="F17" s="200">
+      <c r="F17" s="199">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>578</v>
       </c>
-      <c r="G17" s="200">
+      <c r="G17" s="199">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>538</v>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7173,47 +7178,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>1.8782731076568044E-2</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>1.5460214406136857E-2</v>
       </c>
-      <c r="E18" s="153">
+      <c r="E18" s="152">
         <f t="shared" si="6"/>
         <v>3.1920628001524433E-2</v>
       </c>
-      <c r="F18" s="153">
+      <c r="F18" s="152">
         <f t="shared" si="6"/>
         <v>1.237045810898992E-2</v>
       </c>
-      <c r="G18" s="153">
+      <c r="G18" s="152">
         <f t="shared" si="6"/>
         <v>1.9306218449022351E-2</v>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7224,47 +7229,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>202110</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>165770</v>
       </c>
-      <c r="E19" s="200">
+      <c r="E19" s="199">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>247000</v>
       </c>
-      <c r="F19" s="200">
+      <c r="F19" s="199">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>56000</v>
       </c>
-      <c r="G19" s="200">
+      <c r="G19" s="199">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>69000</v>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7275,47 +7280,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>4.7067232344920495E-2</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0.10978468268322621</v>
       </c>
-      <c r="E20" s="153">
+      <c r="E20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="153">
+      <c r="F20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="153">
+      <c r="G20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7326,47 +7331,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>506463</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>1177151</v>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7377,47 +7382,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-490916.33333333337</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-1106679</v>
       </c>
-      <c r="E22" s="162">
+      <c r="E22" s="161">
         <f t="shared" si="8"/>
         <v>-627758.33333333326</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="161">
         <f t="shared" si="8"/>
         <v>-39214.666666666672</v>
       </c>
-      <c r="G22" s="162">
+      <c r="G22" s="161">
         <f t="shared" si="8"/>
         <v>17844</v>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7428,47 +7433,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-3.4216823029890292E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>-7.7409187211659819E-2</v>
       </c>
-      <c r="E23" s="154">
+      <c r="E23" s="153">
         <f t="shared" si="9"/>
         <v>-6.0845466295112276E-2</v>
       </c>
-      <c r="F23" s="154">
+      <c r="F23" s="153">
         <f t="shared" si="9"/>
         <v>-6.4969204186339754E-3</v>
       </c>
-      <c r="G23" s="154">
+      <c r="G23" s="153">
         <f t="shared" si="9"/>
         <v>3.7445669783082044E-3</v>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7479,7 +7484,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-368187.25</v>
       </c>
@@ -7527,50 +7532,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.55640584728423204</v>
       </c>
-      <c r="D25" s="234">
+      <c r="D25" s="233">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-0.76290610771130096</v>
       </c>
-      <c r="E25" s="234">
+      <c r="E25" s="233">
         <f t="shared" si="10"/>
         <v>-15.008253714596576</v>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7687,43 +7692,43 @@
         <f>Fin_Analysis!C28</f>
         <v>8572255</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7738,43 +7743,43 @@
         <f>Fin_Analysis!C13</f>
         <v>2820142</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7789,43 +7794,43 @@
         <f>Fin_Analysis!C18</f>
         <v>1802858</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7840,43 +7845,43 @@
         <f>Fin_Analysis!I28</f>
         <v>5753095</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7891,43 +7896,43 @@
         <f>Fin_Analysis!I48</f>
         <v>638511</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7942,43 +7947,43 @@
         <f>Fin_Analysis!I15</f>
         <v>186372</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7993,43 +7998,43 @@
         <f>Fin_Analysis!I34</f>
         <v>449467</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8095,43 +8100,43 @@
         <f>Fin_Analysis!D3</f>
         <v>4416822</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8146,43 +8151,43 @@
         <f>Fin_Analysis!D4</f>
         <v>59393</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8197,43 +8202,43 @@
         <f>Fin_Analysis!C63</f>
         <v>3943819</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8295,47 +8300,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>-2.3503645048586649E-2</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="e">
+      <c r="E40" s="155" t="e">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8364,47 +8369,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.8649634921177769</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.86647110650350234</v>
       </c>
-      <c r="E42" s="157">
+      <c r="E42" s="156">
         <f t="shared" si="34"/>
         <v>0.94866452234140264</v>
       </c>
-      <c r="F42" s="157">
+      <c r="F42" s="156">
         <f t="shared" si="34"/>
         <v>0.92880050294748251</v>
       </c>
-      <c r="G42" s="157">
+      <c r="G42" s="156">
         <f t="shared" si="34"/>
         <v>0.89954610800626078</v>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8415,47 +8420,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.14930937614307849</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.12033870152292019</v>
       </c>
-      <c r="E43" s="154">
+      <c r="E43" s="153">
         <f t="shared" si="35"/>
         <v>4.6455886273651797E-2</v>
       </c>
-      <c r="F43" s="154">
+      <c r="F43" s="153">
         <f t="shared" si="35"/>
         <v>5.0511231271457777E-2</v>
       </c>
-      <c r="G43" s="154">
+      <c r="G43" s="153">
         <f t="shared" si="35"/>
         <v>7.6004385029790331E-2</v>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8466,47 +8471,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>1.8079879981657027E-2</v>
       </c>
-      <c r="E44" s="154">
+      <c r="E44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F44" s="154">
+      <c r="F44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G44" s="154">
+      <c r="G44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8517,47 +8522,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>1.152824457225419E-3</v>
       </c>
-      <c r="E45" s="154">
+      <c r="E45" s="153">
         <f t="shared" si="37"/>
         <v>1.1824848024856219E-4</v>
       </c>
-      <c r="F45" s="154">
+      <c r="F45" s="153">
         <f t="shared" si="37"/>
         <v>1.2768079976778883E-4</v>
       </c>
-      <c r="G45" s="154">
+      <c r="G45" s="153">
         <f t="shared" si="37"/>
         <v>1.505325438488989E-4</v>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8568,47 +8573,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>7.2128562067984476E-4</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>2.8452688731520977E-3</v>
       </c>
-      <c r="E46" s="154">
+      <c r="E46" s="153">
         <f t="shared" si="38"/>
         <v>5.3968003296655624E-2</v>
       </c>
-      <c r="F46" s="154">
+      <c r="F46" s="153">
         <f t="shared" si="38"/>
         <v>1.6852687430480604E-2</v>
       </c>
-      <c r="G46" s="154">
+      <c r="G46" s="153">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8619,47 +8624,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>9.4324468277089346E-2</v>
       </c>
-      <c r="E47" s="154">
+      <c r="E47" s="153">
         <f t="shared" si="39"/>
         <v>3.1920628001524433E-2</v>
       </c>
-      <c r="F47" s="154">
+      <c r="F47" s="153">
         <f t="shared" si="39"/>
         <v>1.237045810898992E-2</v>
       </c>
-      <c r="G47" s="154">
+      <c r="G47" s="153">
         <f t="shared" si="39"/>
         <v>1.9306218449022351E-2</v>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8670,47 +8675,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>-4.5622430706520396E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>-0.10321224961554643</v>
       </c>
-      <c r="E48" s="154">
+      <c r="E48" s="153">
         <f t="shared" si="40"/>
         <v>-8.112728839348303E-2</v>
       </c>
-      <c r="F48" s="154">
+      <c r="F48" s="153">
         <f t="shared" si="40"/>
         <v>-8.6625605581786332E-3</v>
       </c>
-      <c r="G48" s="154">
+      <c r="G48" s="153">
         <f t="shared" si="40"/>
         <v>4.9927559710776061E-3</v>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8739,47 +8744,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0.26208484876421134</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8790,47 +8795,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0.16754538114511558</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8858,47 +8863,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.59135389531206572</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8908,47 +8913,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-0.77207647428568138</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8958,47 +8963,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-5.1373316159101103E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>-1.1169453834400038E-2</v>
       </c>
-      <c r="E55" s="154">
+      <c r="E55" s="153">
         <f t="shared" si="45"/>
         <v>-1.4575672697826926E-3</v>
       </c>
-      <c r="F55" s="154">
+      <c r="F55" s="153">
         <f t="shared" si="45"/>
         <v>-1.4739383223963821E-2</v>
       </c>
-      <c r="G55" s="154">
+      <c r="G55" s="153">
         <f t="shared" si="45"/>
         <v>3.0150190540237615E-2</v>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9008,47 +9013,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>1.4900249344048726</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10346,8 +10351,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10396,7 +10401,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>4357429</v>
       </c>
@@ -10440,11 +10445,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-165994.00009492278</v>
+        <v>-165841.64138444903</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0375822254315259</v>
+        <v>1.0375477303329066</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10493,7 +10498,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10540,7 +10545,7 @@
         <f>Inputs!C48</f>
         <v>3496104</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10568,7 +10573,7 @@
         <f>Inputs!C49</f>
         <v>41635</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10596,7 +10601,7 @@
         <f>Inputs!C50</f>
         <v>2820142</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10624,7 +10629,7 @@
         <f>Inputs!C51</f>
         <v>405832</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10637,7 +10642,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10652,7 +10657,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10679,7 +10684,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10701,7 +10706,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10723,7 +10728,7 @@
         <f>Inputs!C55</f>
         <v>1802858</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10744,7 +10749,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10769,7 +10774,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10796,7 +10801,7 @@
         <f>Inputs!C58</f>
         <v>5684</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10817,7 +10822,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10982,7 +10987,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>5753095</v>
       </c>
@@ -11011,7 +11016,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -11037,7 +11042,7 @@
         <f>Inputs!C61</f>
         <v>41883</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -11064,7 +11069,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11091,7 +11096,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11107,7 +11112,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11121,7 +11126,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11148,7 +11153,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11174,7 +11179,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11201,7 +11206,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11228,7 +11233,7 @@
         <f>Inputs!C68</f>
         <v>2128034</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11249,7 +11254,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11270,7 +11275,7 @@
         <f>Inputs!C70</f>
         <v>27391</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11291,7 +11296,7 @@
         <f>Inputs!C71</f>
         <v>38865</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11312,7 +11317,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11458,7 +11463,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>638511</v>
       </c>
@@ -11567,11 +11572,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>635839</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11582,11 +11587,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11598,11 +11603,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11698,8 +11703,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>635839</v>
@@ -11779,8 +11784,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>5755767</v>
@@ -11816,19 +11821,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11838,18 +11843,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11860,17 +11865,17 @@
         <f>Data!C6</f>
         <v>10760416</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>10760416</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>10760416</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11881,23 +11886,23 @@
         <f>Data!C8</f>
         <v>9307367</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.8649634921177769</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>9307367</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.8649634921177769</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>9307367</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.8649634921177769</v>
       </c>
@@ -11907,21 +11912,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>1453049</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>1453049</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>1453049</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11932,23 +11937,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>1606631</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.14930937614307849</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>1606631</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.14930937614307849</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>1606631</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.14930937614307849</v>
       </c>
@@ -11962,54 +11967,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>7761.333333333333</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>7.2128562067984476E-4</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>7761.3333333333321</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>7.2128562067984476E-4</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>7761.3333333333321</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>7.2128562067984476E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>-161343.33333333334</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>-1.4994153881535188E-2</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>-161343.33333333334</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>-1.4994153881535188E-2</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>-161343.33333333334</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>-1.4994153881535188E-2</v>
       </c>
@@ -12023,27 +12028,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12055,23 +12060,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>25220</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>25220</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>25220</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>2.3437755566327548E-3</v>
       </c>
@@ -12085,23 +12090,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>304353</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>304353</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>304353</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>2.8284501268352451E-2</v>
       </c>
@@ -12111,27 +12116,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>-490916.33333333337</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>-4.5622430706520396E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>-490916.33333333337</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>-4.5622430706520396E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>-490916.33333333337</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>-4.5622430706520396E-2</v>
       </c>
@@ -12141,49 +12146,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>-368187.25</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>-3.4216823029890292E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>-368187.25</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>-3.4216823029890292E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>-368187.25</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>-3.4216823029890292E-2</v>
       </c>
@@ -12193,69 +12198,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-0.46513236915389783</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-0.46513236915389783</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-0.46513236915389783</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.425823231123418E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>-8.5922569021862349E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.425823231123418E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>-8.5922569021862349E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.425823231123418E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>-8.5922569021862349E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>-0.3401182340583494</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>-0.3401182340583494</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>-0.3401182340583494</v>
       </c>
@@ -12265,21 +12270,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8657761178575124E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>2.9223832441472461E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8657761178575124E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>2.9223832441472461E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.8657761178575124E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>2.9223832441472461E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12301,22 +12306,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12326,9 +12331,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12336,15 +12341,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-4.6553257479970789</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>-4.4169011656381025</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-4.6553257479970789</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>-4.4169011656381025</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12352,24 +12357,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>2.8318445581800424</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>2.7188286429993043</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>2.8318445581800424</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>2.7188286429993043</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12390,14 +12398,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12412,21 +12420,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1832116.3697620174</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>-1738283.7135872068</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.314519657139257</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>-2.195980501667163</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.314519657139257</v>
+        <v>-2.195980501667163</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.3347367014255824</v>
+        <v>-3.1199221301303335</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12436,16 +12444,16 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>63693.153130849205</v>
-      </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+        <v>63634.691941459976</v>
+      </c>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.0463805345334191E-2</v>
-      </c>
-      <c r="I98" s="216"/>
+        <v>8.0389951099908347E-2</v>
+      </c>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12456,17 +12464,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12475,7 +12483,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-1895809.5228928665</v>
+        <v>-1801918.4055286667</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12514,14 +12522,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12536,27 +12544,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1114480.2861315042</v>
+        <v>1070002.5590174883</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1967381474619545</v>
+        <v>1.1489775962775925</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4079272323081817</v>
+        <v>1.3517383485618737</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4079272323081817</v>
+        <v>1.3517383485618737</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4079272323081817</v>
+        <v>1.3517383485618737</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.0285274311810042</v>
+        <v>1.9204716911749815</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12575,14 +12583,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12597,27 +12605,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>557240.14306575211</v>
+        <v>535001.27950874413</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.59836907373097725</v>
+        <v>0.57448879813879627</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.70396361615409087</v>
+        <v>0.67586917428093685</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.70396361615409087</v>
+        <v>0.67586917428093685</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.70396361615409087</v>
+        <v>0.67586917428093685</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.0142637155905021</v>
+        <v>0.96023584558749076</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC06F8C-9988-4907-B416-FF2B64B4DBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A16C6769-C488-49DE-A19A-00AAA650BEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3580,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9223832441472461E-2</v>
+        <v>2.9466926886783384E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4689,7 +4689,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -5001,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.8</v>
+        <v>5.74</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5042,7 +5044,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4591.1361832000002</v>
+        <v>4543.6416709599998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5091,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5137,10 +5139,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5187,7 +5189,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5258,7 +5260,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.97017838420317271</v>
+        <v>0.96217466610027491</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5274,7 +5276,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-11.638385716162158</v>
+        <v>-11.54237207582378</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5306,7 +5308,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9223832441472461E-2</v>
+        <v>2.9466926886783384E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10445,11 +10447,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-165841.64138444903</v>
+        <v>-165491.29815451938</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0375477303329066</v>
+        <v>1.0374684101271274</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12221,17 +12223,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.5922569021862349E-2</v>
+        <v>-8.6637304137384602E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.5922569021862349E-2</v>
+        <v>-8.6637304137384602E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.5922569021862349E-2</v>
+        <v>-8.6637304137384602E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12272,17 +12274,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9223832441472461E-2</v>
+        <v>2.9466926886783384E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9223832441472461E-2</v>
+        <v>2.9466926886783384E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9223832441472461E-2</v>
+        <v>2.9466926886783384E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12331,7 +12333,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12342,14 +12344,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.4169011656381025</v>
+        <v>-4.3903654853683136</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.4169011656381025</v>
+        <v>-4.3903654853683136</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12363,21 +12365,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7188286429993043</v>
+        <v>2.7162906311764088</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7188286429993043</v>
+        <v>2.7162906311764088</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12420,21 +12422,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1738283.7135872068</v>
+        <v>-1727840.5229627981</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.195980501667163</v>
+        <v>-2.1827875787817099</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.195980501667163</v>
+        <v>-2.1827875787817099</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.1199221301303335</v>
+        <v>-2.8274014974692494</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12444,14 +12446,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>63634.691941459976</v>
+        <v>63500.262594739594</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.0389951099908347E-2</v>
+        <v>8.0220125989115237E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12483,7 +12485,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-1801918.4055286667</v>
+        <v>-1791340.7855575378</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12544,27 +12546,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1070002.5590174883</v>
+        <v>1069003.7174199102</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1489775962775925</v>
+        <v>1.1479050319101753</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3517383485618737</v>
+        <v>1.3504765081296182</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3517383485618737</v>
+        <v>1.3504765081296182</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3517383485618737</v>
+        <v>1.3504765081296182</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9204716911749815</v>
+        <v>1.74929495590857</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12605,27 +12607,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>535001.27950874413</v>
+        <v>534501.85870995512</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.57448879813879627</v>
+        <v>0.57395251595508767</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.67586917428093685</v>
+        <v>0.67523825406480908</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.67586917428093685</v>
+        <v>0.67523825406480908</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.67586917428093685</v>
+        <v>0.67523825406480908</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.96023584558749076</v>
+        <v>0.87464747795428499</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A16C6769-C488-49DE-A19A-00AAA650BEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{261F4FBF-4ABA-4A22-B01D-DE5B35CB02CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.9466926886783384E-2</v>
+        <v>2.7406016655081428E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>5.74</v>
+        <v>6.18</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4543.6416709599998</v>
+        <v>4891.9347607199998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5093,7 +5093,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.96217466610027491</v>
+        <v>1.0345294208611351</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-11.54237207582378</v>
+        <v>-12.410349097386508</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.9466926886783384E-2</v>
+        <v>2.7406016655081428E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10447,11 +10447,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-165491.29815451938</v>
+        <v>-167910.97624395197</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0374684101271274</v>
+        <v>1.0380162425028565</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11518,7 +11518,7 @@
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -11538,11 +11538,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
+        <v>1.0345294208611351</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>59393</v>
+        <v>61443.805893205397</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12223,17 +12223,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.6637304137384602E-2</v>
+        <v>-8.0577910593231397E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.6637304137384602E-2</v>
+        <v>-8.0577910593231397E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.6637304137384602E-2</v>
+        <v>-8.0577910593231397E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12274,17 +12274,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9466926886783384E-2</v>
+        <v>2.7406016655081428E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9466926886783384E-2</v>
+        <v>2.7406016655081428E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.9466926886783384E-2</v>
+        <v>2.7406016655081428E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12344,14 +12344,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.3903654853683136</v>
+        <v>-4.544087113143739</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.3903654853683136</v>
+        <v>-4.544087113143739</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12372,14 +12372,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7162906311764088</v>
+        <v>2.6928515928878847</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7162906311764088</v>
+        <v>2.6928515928878847</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12422,21 +12422,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1727840.5229627981</v>
+        <v>-1788338.096253989</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.1827875787817099</v>
+        <v>-2.2592143958238351</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.1827875787817099</v>
+        <v>-2.2592143958238351</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-2.8274014974692494</v>
+        <v>-2.9263984402099257</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12446,14 +12446,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>63500.262594739594</v>
+        <v>65781.840708872332</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.0220125989115237E-2</v>
+        <v>8.3102452396768528E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-1791340.7855575378</v>
+        <v>-1854119.9369628613</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12546,27 +12546,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1069003.7174199102</v>
+        <v>1059779.2188424778</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1479050319101753</v>
+        <v>1.1379996890555784</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.3504765081296182</v>
+        <v>1.338823163594798</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.3504765081296182</v>
+        <v>1.338823163594798</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.3504765081296182</v>
+        <v>1.338823163594798</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.74929495590857</v>
+        <v>1.7342001825515285</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12607,27 +12607,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>534501.85870995512</v>
+        <v>529889.60942123889</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.57395251595508767</v>
+        <v>0.56899984452778918</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.67523825406480908</v>
+        <v>0.66941158179739901</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.67523825406480908</v>
+        <v>0.66941158179739901</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.67523825406480908</v>
+        <v>0.66941158179739901</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.87464747795428499</v>
+        <v>0.86710009127576426</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{261F4FBF-4ABA-4A22-B01D-DE5B35CB02CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F65A945F-00BC-42CE-8BE0-F32E8E34AB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -938,6 +938,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0710.HK</t>
   </si>
   <si>
@@ -948,9 +959,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>Strongly agree</t>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3698,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3715,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4201,7 +4209,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.7406016655081428E-2</v>
+        <v>2.6684959126269728E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4334,7 +4342,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -4466,7 +4474,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -5003,10 +5011,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.18</v>
+        <v>6.35</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5044,7 +5052,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>4891.9347607199998</v>
+        <v>5026.5025453999997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5093,7 +5101,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5139,10 +5147,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5189,7 +5197,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5260,7 +5268,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0345294208611351</v>
+        <v>1.0624835662716403</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5276,7 +5284,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.410349097386508</v>
+        <v>-12.7456906510126</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5308,7 +5316,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7406016655081428E-2</v>
+        <v>2.6684959126269728E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10447,11 +10455,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-167910.97624395197</v>
+        <v>-169768.93428716683</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0380162425028565</v>
+        <v>1.0384368974541349</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11538,11 +11546,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0345294208611351</v>
+        <v>1.0624835662716403</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>61443.805893205397</v>
+        <v>63104.086451571537</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12223,17 +12231,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0577910593231397E-2</v>
+        <v>-7.8457890386705212E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0577910593231397E-2</v>
+        <v>-7.8457890386705212E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0577910593231397E-2</v>
+        <v>-7.8457890386705212E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12274,17 +12282,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7406016655081428E-2</v>
+        <v>2.6684959126269728E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7406016655081428E-2</v>
+        <v>2.6684959126269728E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7406016655081428E-2</v>
+        <v>2.6684959126269728E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12333,7 +12341,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12344,14 +12352,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.544087113143739</v>
+        <v>-5.4730687295690172</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.544087113143739</v>
+        <v>-5.4730687295690172</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12372,14 +12380,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6928515928878847</v>
+        <v>3.1950002094589411</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.6928515928878847</v>
+        <v>3.1950002094589411</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12422,21 +12430,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1788338.096253989</v>
+        <v>-2153941.3899425147</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.2592143958238351</v>
+        <v>-2.7210824430302831</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.2592143958238351</v>
+        <v>-2.7210824430302831</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-2.9263984402099257</v>
+        <v>-3.7162681719942894</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12446,14 +12454,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>65781.840708872332</v>
+        <v>67591.373543906055</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.3102452396768528E-2</v>
+        <v>8.5388442187618152E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12485,7 +12493,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-1854119.9369628613</v>
+        <v>-2221532.7634864207</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12546,27 +12554,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1059779.2188424778</v>
+        <v>1257401.2006917617</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.1379996890555784</v>
+        <v>1.3502078074037263</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.338823163594798</v>
+        <v>1.5884797734161487</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.338823163594798</v>
+        <v>1.5884797734161487</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.338823163594798</v>
+        <v>1.5884797734161487</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.7342001825515285</v>
+        <v>2.1694369602521584</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12607,27 +12615,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>529889.60942123889</v>
+        <v>628700.60034588084</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.56899984452778918</v>
+        <v>0.67510390370186313</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.66941158179739901</v>
+        <v>0.79423988670807433</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.66941158179739901</v>
+        <v>0.79423988670807433</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.66941158179739901</v>
+        <v>0.79423988670807433</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.86710009127576426</v>
+        <v>1.0847184801260792</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F65A945F-00BC-42CE-8BE0-F32E8E34AB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0FDADCA-41B1-4D05-8C05-F8321C090366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -946,6 +946,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4209,7 +4213,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.6684959126269728E-2</v>
+        <v>2.6456707548350097E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5011,10 +5015,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.35</v>
+        <v>6.4</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5052,7 +5056,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5026.5025453999997</v>
+        <v>5066.0813056000006</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5101,7 +5105,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5122,7 +5126,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5133,7 +5137,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5160,7 +5164,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5268,7 +5272,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0624835662716403</v>
+        <v>1.071649995997334</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5284,7 +5288,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.7456906510126</v>
+        <v>-12.855652330766306</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5316,7 +5320,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.6684959126269728E-2</v>
+        <v>2.6456707548350097E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5394,8 +5398,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -6421,12 +6425,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8852,118 +8856,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>-14.813743266325055</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v>6.4957053603081072E-2</v>
+      </c>
+      <c r="E52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" s="153" t="e">
+        <f t="shared" si="43"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.59135389531206572</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-0.77207647428568138</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8971,107 +8976,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-5.1373316159101103E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-0.77207647428568138</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-1.1169453834400038E-2</v>
-      </c>
-      <c r="E55" s="153">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-1.4575672697826926E-3</v>
-      </c>
-      <c r="F55" s="153">
+        <v/>
+      </c>
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-1.4739383223963821E-2</v>
-      </c>
-      <c r="G55" s="153">
+        <v/>
+      </c>
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>3.0150190540237615E-2</v>
-      </c>
-      <c r="H55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-5.1373316159101103E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>-1.1169453834400038E-2</v>
+      </c>
+      <c r="E56" s="153">
+        <f t="shared" si="46"/>
+        <v>-1.4575672697826926E-3</v>
+      </c>
+      <c r="F56" s="153">
+        <f t="shared" si="46"/>
+        <v>-1.4739383223963821E-2</v>
+      </c>
+      <c r="G56" s="153">
+        <f t="shared" si="46"/>
+        <v>3.0150190540237615E-2</v>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>1.4900249344048726</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9639,7 +9691,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10322,6 +10376,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10455,11 +10510,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-169768.93428716683</v>
+        <v>-170224.83321503835</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0384368974541349</v>
+        <v>1.0385401162227137</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11546,11 +11601,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0624835662716403</v>
+        <v>1.071649995997334</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>63104.086451571537</v>
+        <v>63648.508212269662</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12231,17 +12286,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.8457890386705212E-2</v>
+        <v>-7.7786795587711066E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.8457890386705212E-2</v>
+        <v>-7.7786795587711066E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.8457890386705212E-2</v>
+        <v>-7.7786795587711066E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12282,17 +12337,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6684959126269728E-2</v>
+        <v>2.6456707548350097E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6684959126269728E-2</v>
+        <v>2.6456707548350097E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6684959126269728E-2</v>
+        <v>2.6456707548350097E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12352,14 +12407,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.4730687295690172</v>
+        <v>-5.4889232937916459</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.4730687295690172</v>
+        <v>-5.4889232937916459</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12380,14 +12435,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1950002094589411</v>
+        <v>3.1890665417585602</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1950002094589411</v>
+        <v>3.1890665417585602</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12430,21 +12485,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2153941.3899425147</v>
+        <v>-2160180.9976993338</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.7210824430302831</v>
+        <v>-2.7289649635100668</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.7210824430302831</v>
+        <v>-2.7289649635100668</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.7162681719942894</v>
+        <v>-3.7270335789922084</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12454,14 +12509,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>67591.373543906055</v>
+        <v>68123.58908362186</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.5388442187618152E-2</v>
+        <v>8.6060792126103361E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12493,7 +12548,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-2221532.7634864207</v>
+        <v>-2228304.5867829556</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12554,27 +12609,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1257401.2006917617</v>
+        <v>1255065.9892983863</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3502078074037263</v>
+        <v>1.3477002380984491</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5884797734161487</v>
+        <v>1.5855296918805284</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5884797734161487</v>
+        <v>1.5855296918805284</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5884797734161487</v>
+        <v>1.5855296918805284</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1694369602521584</v>
+        <v>2.1654079407920186</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12615,27 +12670,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>628700.60034588084</v>
+        <v>627532.99464919313</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.67510390370186313</v>
+        <v>0.67385011904922454</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.79423988670807433</v>
+        <v>0.7927648459402642</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.79423988670807433</v>
+        <v>0.7927648459402642</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.79423988670807433</v>
+        <v>0.7927648459402642</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.0847184801260792</v>
+        <v>1.0827039703960093</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0FDADCA-41B1-4D05-8C05-F8321C090366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B385E2E-9AFE-468A-9582-8A28FEEBFCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.6456707548350097E-2</v>
+        <v>2.6364431523583511E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5015,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.4</v>
+        <v>6.42</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5066.0813056000006</v>
+        <v>5081.9128096800005</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5105,7 +5105,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.071649995997334</v>
+        <v>1.0754007918938167</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.855652330766306</v>
+        <v>-12.900647364768965</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.6456707548350097E-2</v>
+        <v>2.6364431523583511E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10416,8 +10416,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10510,11 +10510,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-170224.83321503835</v>
+        <v>-170399.56302031397</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0385401162227137</v>
+        <v>1.0385796762967388</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11601,11 +11601,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.071649995997334</v>
+        <v>1.0754007918938167</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>63648.508212269662</v>
+        <v>63871.279232949455</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12286,17 +12286,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.7786795587711066E-2</v>
+        <v>-7.7515489860683351E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.7786795587711066E-2</v>
+        <v>-7.7515489860683351E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.7786795587711066E-2</v>
+        <v>-7.7515489860683351E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12337,17 +12337,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6456707548350097E-2</v>
+        <v>2.6364431523583511E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6456707548350097E-2</v>
+        <v>2.6364431523583511E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6456707548350097E-2</v>
+        <v>2.6364431523583511E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12407,14 +12407,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.4889232937916459</v>
+        <v>-5.4949476792830065</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.4889232937916459</v>
+        <v>-5.4949476792830065</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12435,14 +12435,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1890665417585602</v>
+        <v>3.1864420965621258</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1890665417585602</v>
+        <v>3.1864420965621258</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12485,21 +12485,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2160180.9976993338</v>
+        <v>-2162551.9113311511</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.7289649635100668</v>
+        <v>-2.7319601478208395</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.7289649635100668</v>
+        <v>-2.7319601478208395</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.7270335789922084</v>
+        <v>-3.7311241967358542</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12508,15 +12508,15 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>68123.58908362186</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-68336.475299508165</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>8.6060792126103361E-2</v>
+        <v>-8.6329732101497414E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12547,15 +12547,15 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>-2228304.5867829556</v>
+        <f>C97+C98+$C$99</f>
+        <v>-2230888.3866306595</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
         <v>0</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
+        <f>MAX(E97+H98+E99,0)</f>
         <v>0</v>
       </c>
       <c r="F100" s="109">
@@ -12567,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
+        <f>MAX(I97+H98+H99,0)</f>
         <v>0</v>
       </c>
       <c r="K100" s="24"/>
@@ -12609,27 +12609,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1255065.9892983863</v>
+        <v>1254033.1316067416</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3477002380984491</v>
+        <v>1.3465911469679266</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5855296918805284</v>
+        <v>1.584224878785796</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5855296918805284</v>
+        <v>1.584224878785796</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5855296918805284</v>
+        <v>1.584224878785796</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1654079407920186</v>
+        <v>2.163625916367593</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12670,27 +12670,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>627532.99464919313</v>
+        <v>627016.56580337079</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.67385011904922454</v>
+        <v>0.67329557348396329</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.7927648459402642</v>
+        <v>0.79211243939289799</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.7927648459402642</v>
+        <v>0.79211243939289799</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.7927648459402642</v>
+        <v>0.79211243939289799</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.0827039703960093</v>
+        <v>1.0818129581837965</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B385E2E-9AFE-468A-9582-8A28FEEBFCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA9688A-CD39-4586-A28A-FA58FF25DE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.6364431523583511E-2</v>
+        <v>2.6705873842369752E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5015,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.42</v>
+        <v>6.34</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5081.9128096800005</v>
+        <v>5018.5867933599993</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5105,7 +5105,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0754007918938167</v>
+        <v>1.061651481829069</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.900647364768965</v>
+        <v>-12.735708858129204</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.6364431523583511E-2</v>
+        <v>2.6705873842369752E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10510,11 +10510,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-170399.56302031397</v>
+        <v>-169581.53863551203</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0385796762967388</v>
+        <v>1.0383944697421612</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11601,11 +11601,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0754007918938167</v>
+        <v>1.061651481829069</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>63871.279232949455</v>
+        <v>63054.666460273897</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12286,17 +12286,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.7515489860683351E-2</v>
+        <v>-7.8519382873745575E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.7515489860683351E-2</v>
+        <v>-7.8519382873745575E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.7515489860683351E-2</v>
+        <v>-7.8519382873745575E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12337,17 +12337,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6364431523583511E-2</v>
+        <v>2.6705873842369752E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6364431523583511E-2</v>
+        <v>2.6705873842369752E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6364431523583511E-2</v>
+        <v>2.6705873842369752E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12407,14 +12407,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.4949476792830065</v>
+        <v>-5.466908224595735</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.4949476792830065</v>
+        <v>-5.466908224595735</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12435,14 +12435,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1864420965621258</v>
+        <v>3.1927940803811112</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1864420965621258</v>
+        <v>3.1927940803811112</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12485,21 +12485,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2162551.9113311511</v>
+        <v>-2151516.906110764</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.7319601478208395</v>
+        <v>-2.7180195832798777</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.7319601478208395</v>
+        <v>-2.7180195832798777</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.7311241967358542</v>
+        <v>-3.7120851277668465</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12509,14 +12509,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-68336.475299508165</v>
+        <v>-67484.930435962902</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.6329732101497414E-2</v>
+        <v>-8.5253972199921133E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12548,7 +12548,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-2230888.3866306595</v>
+        <v>-2219001.836546727</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12609,27 +12609,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1254033.1316067416</v>
+        <v>1256532.9724697003</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3465911469679266</v>
+        <v>1.3492754967590486</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.584224878785796</v>
+        <v>1.5873829373635866</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.584224878785796</v>
+        <v>1.5873829373635866</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.584224878785796</v>
+        <v>1.5873829373635866</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.163625916367593</v>
+        <v>2.1679389766381472</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12670,27 +12670,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>627016.56580337079</v>
+        <v>628266.48623485013</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.67329557348396329</v>
+        <v>0.67463774837952428</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.79211243939289799</v>
+        <v>0.7936914686817933</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.79211243939289799</v>
+        <v>0.7936914686817933</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.79211243939289799</v>
+        <v>0.7936914686817933</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.0818129581837965</v>
+        <v>1.0839694883190736</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CA9688A-CD39-4586-A28A-FA58FF25DE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{384A6F69-8561-42C0-B41C-6C0DFA36D660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.6705873842369752E-2</v>
+        <v>2.6166835212019655E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5015,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.34</v>
+        <v>6.47</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5018.5867933599993</v>
+        <v>5121.4915698800005</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5105,7 +5105,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5151,10 +5151,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5201,7 +5201,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.061651481829069</v>
+        <v>1.0835215763986794</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.735708858129204</v>
+        <v>-12.998065348847275</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.6705873842369752E-2</v>
+        <v>2.6166835212019655E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10510,11 +10510,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-169581.53863551203</v>
+        <v>-170955.76183143185</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0383944697421612</v>
+        <v>1.0387056036741875</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11601,11 +11601,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.061651481829069</v>
+        <v>1.0835215763986794</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>63054.666460273897</v>
+        <v>64353.596987046767</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12286,17 +12286,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.8519382873745575E-2</v>
+        <v>-7.6934526266917436E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.8519382873745575E-2</v>
+        <v>-7.6934526266917436E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.8519382873745575E-2</v>
+        <v>-7.6934526266917436E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12337,17 +12337,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6705873842369752E-2</v>
+        <v>2.6166835212019655E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6705873842369752E-2</v>
+        <v>2.6166835212019655E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6705873842369752E-2</v>
+        <v>2.6166835212019655E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12396,7 +12396,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12407,14 +12407,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.466908224595735</v>
+        <v>-5.0350317878641722</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.466908224595735</v>
+        <v>-5.0350317878641722</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12435,14 +12435,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1927940803811112</v>
+        <v>2.9077661074541803</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1927940803811112</v>
+        <v>2.9077661074541803</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12485,21 +12485,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2151516.906110764</v>
+        <v>-1981550.7356895395</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.7180195832798777</v>
+        <v>-2.5033006664134207</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.7180195832798777</v>
+        <v>-2.5033006664134207</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.7120851277668465</v>
+        <v>-3.3293025963808329</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12509,14 +12509,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-67484.930435962902</v>
+        <v>-68868.690839223942</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.5253972199921133E-2</v>
+        <v>-8.7002082039982567E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12548,7 +12548,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-2219001.836546727</v>
+        <v>-2050419.4265287635</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12609,27 +12609,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1256532.9724697003</v>
+        <v>1144359.4225813409</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3492754967590486</v>
+        <v>1.2288226112678229</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5873829373635866</v>
+        <v>1.4456736603150857</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.5873829373635866</v>
+        <v>1.4456736603150857</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5873829373635866</v>
+        <v>1.4456736603150857</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1679389766381472</v>
+        <v>1.922695557662395</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12670,27 +12670,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>628266.48623485013</v>
+        <v>572179.71129067044</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.67463774837952428</v>
+        <v>0.61441130563391144</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.7936914686817933</v>
+        <v>0.72283683015754285</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.7936914686817933</v>
+        <v>0.72283683015754285</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.7936914686817933</v>
+        <v>0.72283683015754285</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.0839694883190736</v>
+        <v>0.96134777883119749</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{384A6F69-8561-42C0-B41C-6C0DFA36D660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61DFCEC2-BAFE-4525-BC95-422BA8CD6F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4213,7 +4224,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.6166835212019655E-2</v>
+        <v>2.7193944289369984E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5015,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.47</v>
+        <v>6.22</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -5056,7 +5067,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>5121.4915698800005</v>
+        <v>4923.5977688800003</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5105,7 +5116,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5272,7 +5283,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0835215763986794</v>
+        <v>1.0425972134308901</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5288,7 +5299,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.998065348847275</v>
+        <v>-12.507131383338915</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5320,7 +5331,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.6166835212019655E-2</v>
+        <v>2.7193944289369984E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10510,11 +10521,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-170955.76183143185</v>
+        <v>-168202.37109216128</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0387056036741875</v>
+        <v>1.0380822163746153</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -11601,11 +11612,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0835215763986794</v>
+        <v>1.0425972134308901</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>64353.596987046767</v>
+        <v>61922.976297300855</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -12286,17 +12297,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.6934526266917436E-2</v>
+        <v>-7.9954385170377826E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.6934526266917436E-2</v>
+        <v>-7.9954385170377826E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.6934526266917436E-2</v>
+        <v>-7.9954385170377826E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12337,17 +12348,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6166835212019655E-2</v>
+        <v>2.7193944289369984E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6166835212019655E-2</v>
+        <v>2.7193944289369984E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.6166835212019655E-2</v>
+        <v>2.7193944289369984E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12407,14 +12418,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.0350317878641722</v>
+        <v>-4.9487280522165564</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.0350317878641722</v>
+        <v>-4.9487280522165564</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12435,14 +12446,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9077661074541803</v>
+        <v>2.9197048922520921</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9077661074541803</v>
+        <v>2.9197048922520921</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12485,21 +12496,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1981550.7356895395</v>
+        <v>-1947585.6609749205</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.5033006664134207</v>
+        <v>-2.4603924568800926</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.5033006664134207</v>
+        <v>-2.4603924568800926</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.3293025963808329</v>
+        <v>-3.2722361739082837</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12509,14 +12520,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-68868.690839223942</v>
+        <v>-66207.613140644971</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.7002082039982567E-2</v>
+        <v>-8.3640332347556662E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12548,7 +12559,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-2050419.4265287635</v>
+        <v>-2013793.2741155655</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12609,27 +12620,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1144359.4225813409</v>
+        <v>1149057.9644766594</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2288226112678229</v>
+        <v>1.2338679444096894</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4456736603150857</v>
+        <v>1.4516093463643405</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4456736603150857</v>
+        <v>1.4516093463643405</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4456736603150857</v>
+        <v>1.4516093463643405</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.922695557662395</v>
+        <v>1.9305898131308754</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12670,27 +12681,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>572179.71129067044</v>
+        <v>574528.98223832971</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.61441130563391144</v>
+        <v>0.61693397220484469</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.72283683015754285</v>
+        <v>0.72580467318217023</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.72283683015754285</v>
+        <v>0.72580467318217023</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.72283683015754285</v>
+        <v>0.72580467318217023</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.96134777883119749</v>
+        <v>0.9652949065654377</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61DFCEC2-BAFE-4525-BC95-422BA8CD6F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A146E79-E324-4F67-8FCA-7636B879B33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,13 +123,7 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
-  </si>
-  <si>
-    <t>Orderly Liquidation Value per Shares =</t>
   </si>
   <si>
     <t>Book Quick Ratio</t>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -961,6 +940,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>791575204</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3856,7 +3881,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>9307367</v>
@@ -3882,7 +3907,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>1606631</v>
@@ -3908,7 +3933,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3924,7 +3949,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>25220</v>
@@ -3950,7 +3975,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>5821</v>
@@ -3976,7 +4001,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150">
         <v>-563737</v>
@@ -3996,7 +4021,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <v>202110</v>
@@ -4022,7 +4047,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <v>506463</v>
@@ -4058,7 +4083,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4074,7 +4099,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4106,7 +4131,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4154,7 +4179,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4170,7 +4195,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4186,7 +4211,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4202,7 +4227,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <v>0.15820000000000001</v>
@@ -4220,11 +4245,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.7193944289369984E-2</v>
+        <v>2.7283368047847544E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4269,21 +4294,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>3496104</v>
@@ -4295,7 +4320,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59">
         <v>41635</v>
@@ -4307,7 +4332,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>2820142</v>
@@ -4320,7 +4345,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <v>405832</v>
@@ -4332,7 +4357,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59">
         <v>0</v>
@@ -4344,7 +4369,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4357,7 +4382,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -4369,7 +4394,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>1802858</v>
@@ -4382,7 +4407,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59">
         <v>0</v>
@@ -4392,12 +4417,12 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59">
         <v>0</v>
@@ -4406,12 +4431,12 @@
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59">
         <v>5684</v>
@@ -4424,7 +4449,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120">
         <v>0</v>
@@ -4437,7 +4462,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59">
         <v>0</v>
@@ -4450,7 +4475,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59">
         <v>41883</v>
@@ -4463,7 +4488,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59">
         <v>0</v>
@@ -4476,7 +4501,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4489,7 +4514,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -4501,7 +4526,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <v>0</v>
@@ -4510,12 +4535,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59">
         <v>0</v>
@@ -4524,12 +4549,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59">
         <v>0</v>
@@ -4539,12 +4564,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>2128034</v>
@@ -4557,7 +4582,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -4570,7 +4595,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>27391</v>
@@ -4582,7 +4607,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>38865</v>
@@ -4595,7 +4620,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247">
         <v>0</v>
@@ -4607,7 +4632,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>174488</v>
@@ -4615,7 +4640,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>11884</v>
@@ -4623,13 +4648,13 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4643,7 +4668,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59">
         <v>432202</v>
@@ -4651,7 +4676,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>17265</v>
@@ -4659,19 +4684,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83">
         <v>638511</v>
@@ -4679,7 +4704,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>4357429</v>
@@ -4687,19 +4712,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4707,10 +4732,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4718,18 +4743,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4738,20 +4763,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4769,7 +4794,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4790,7 +4815,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4811,7 +4836,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4829,7 +4854,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4850,7 +4875,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4868,7 +4893,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4886,7 +4911,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -5014,62 +5039,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0710.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.22</v>
+        <v>6.2</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>京东方精电</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>791575204</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>4923.5977688800003</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>4907.7662648000005</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5092,16 +5117,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5116,7 +5141,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5126,40 +5151,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5172,29 +5197,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5204,12 +5229,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5219,29 +5244,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.8649634921177769</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5249,7 +5274,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5260,58 +5285,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>7.2128562067984476E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0425972134308901</v>
+        <v>1.0391800047768955</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.3437755566327548E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.507131383338915</v>
+        <v>-12.466138105158986</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>2.8284501268352451E-2</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5320,18 +5345,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>-4.5622430706520396E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7193944289369984E-2</v>
+        <v>2.7283368047847544E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5341,23 +5366,23 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -5372,31 +5397,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="274">
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="274"/>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5406,25 +5431,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5434,7 +5459,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5444,14 +5469,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5461,7 +5486,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5476,14 +5501,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6436,12 +6461,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6468,16 +6493,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6495,7 +6520,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6528,7 +6553,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6539,7 +6564,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6691,7 +6716,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6742,7 +6767,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6793,7 +6818,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6844,7 +6869,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6895,7 +6920,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6946,7 +6971,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6997,7 +7022,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7048,7 +7073,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7099,7 +7124,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7150,7 +7175,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7201,7 +7226,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7252,7 +7277,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7303,7 +7328,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7354,7 +7379,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7405,7 +7430,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7456,7 +7481,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7507,7 +7532,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7558,7 +7583,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7609,7 +7634,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7762,7 +7787,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7813,7 +7838,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7915,7 +7940,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8119,7 +8144,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8170,7 +8195,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8221,7 +8246,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8272,7 +8297,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8323,7 +8348,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8374,7 +8399,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8392,7 +8417,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8443,7 +8468,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8494,7 +8519,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8545,7 +8570,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8596,7 +8621,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8647,7 +8672,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8698,7 +8723,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8749,7 +8774,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8766,50 +8791,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0.26208484876421134</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>1.5675205973129716</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8818,11 +8843,11 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>0.16754538114511558</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>0.26208484876421134</v>
       </c>
       <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8869,167 +8894,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
+        <v>143</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0.16754538114511558</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>-14.813743266325055</v>
       </c>
-      <c r="D52" s="153">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>6.4957053603081072E-2</v>
       </c>
-      <c r="E52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="E53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F52" s="153" t="e">
-        <f t="shared" si="43"/>
+      <c r="F53" s="153" t="e">
+        <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.59135389531206572</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-0.77207647428568138</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.40315104102095145</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9037,112 +9063,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-5.1373316159101103E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-0.77207647428568138</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-1.1169453834400038E-2</v>
-      </c>
-      <c r="E56" s="153">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-1.4575672697826926E-3</v>
-      </c>
-      <c r="F56" s="153">
+        <v/>
+      </c>
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-1.4739383223963821E-2</v>
-      </c>
-      <c r="G56" s="153">
+        <v/>
+      </c>
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>3.0150190540237615E-2</v>
-      </c>
-      <c r="H56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-5.1373316159101103E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>-1.1169453834400038E-2</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>-1.4575672697826926E-3</v>
+      </c>
+      <c r="F57" s="153">
+        <f t="shared" si="47"/>
+        <v>-1.4739383223963821E-2</v>
+      </c>
+      <c r="G57" s="153">
+        <f t="shared" si="47"/>
+        <v>3.0150190540237615E-2</v>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>1.4900249344048726</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>-3.702718583213481E-2</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>-0.11266192365574594</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9705,7 +9921,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10388,6 +10606,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10427,8 +10646,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10446,7 +10665,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10461,7 +10680,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10475,7 +10694,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10485,7 +10704,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10503,10 +10722,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10515,22 +10734,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-168202.37109216128</v>
+        <f>(E49-I49-E53)</f>
+        <v>-157114.16802371453</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0380822163746153</v>
+        <v>1.0355717681228074</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10540,8 +10760,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10553,7 +10774,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10571,7 +10792,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10590,32 +10811,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10632,7 +10853,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10643,7 +10864,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10660,7 +10881,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10671,7 +10892,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10688,7 +10909,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10699,7 +10920,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10716,7 +10937,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10727,7 +10948,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10744,7 +10965,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10754,7 +10975,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10776,7 +10997,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10798,7 +11019,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10819,7 +11040,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10844,7 +11065,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10871,7 +11092,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10892,7 +11113,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10909,7 +11130,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10921,13 +11142,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10949,7 +11170,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10969,7 +11190,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10978,7 +11199,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10998,7 +11219,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -11011,7 +11232,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11031,7 +11252,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11077,7 +11298,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11086,7 +11307,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11102,7 +11323,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11112,7 +11333,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11129,7 +11350,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11139,7 +11360,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11156,7 +11377,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11166,7 +11387,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11186,7 +11407,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11196,7 +11417,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11213,7 +11434,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11223,7 +11444,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11249,7 +11470,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11276,7 +11497,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11303,7 +11524,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11324,7 +11545,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11345,7 +11566,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11366,7 +11587,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11387,7 +11608,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11404,7 +11625,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11422,7 +11643,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11441,7 +11662,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11460,7 +11681,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11477,7 +11698,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11490,7 +11711,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11507,7 +11728,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11520,7 +11741,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11537,7 +11758,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11564,7 +11785,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11580,14 +11801,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11604,7 +11825,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11612,11 +11833,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0425972134308901</v>
+        <v>1.0391800047768955</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>61922.976297300855</v>
+        <v>61720.018023714154</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11634,7 +11855,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11645,14 +11866,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>635839</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11660,30 +11881,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11700,11 +11921,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11714,7 +11935,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11735,7 +11956,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11756,7 +11977,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11777,7 +11998,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11792,7 +12013,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11823,11 +12044,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11837,7 +12058,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11858,7 +12079,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11873,7 +12094,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11895,21 +12116,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11919,23 +12140,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11956,7 +12177,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11986,7 +12207,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -12007,7 +12228,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12037,7 +12258,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12067,7 +12288,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12098,7 +12319,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12125,12 +12346,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12160,7 +12381,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12190,7 +12411,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12220,7 +12441,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12241,7 +12462,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12272,7 +12493,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12293,28 +12514,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.9954385170377826E-2</v>
+        <v>-8.0217304795152239E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.9954385170377826E-2</v>
+        <v>-8.0217304795152239E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.9954385170377826E-2</v>
+        <v>-8.0217304795152239E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12344,21 +12565,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7193944289369984E-2</v>
+        <v>2.7283368047847544E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7193944289369984E-2</v>
+        <v>2.7283368047847544E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7193944289369984E-2</v>
+        <v>2.7283368047847544E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12375,29 +12596,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12414,24 +12635,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9487280522165564</v>
+        <v>-4.9419693261536093</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9487280522165564</v>
+        <v>-4.9419693261536093</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12442,18 +12663,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9197048922520921</v>
+        <v>2.9211581677063956</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9197048922520921</v>
+        <v>2.9211581677063956</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12472,69 +12693,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1947585.6609749205</v>
+        <v>-1944925.7455728692</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.4603924568800926</v>
+        <v>-2.4570321755213409</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.4603924568800926</v>
+        <v>-2.4570321755213409</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.2722361739082837</v>
+        <v>-3.2677671168739599</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-66207.613140644971</v>
+        <v>-65994.726924758652</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.3640332347556662E-2</v>
+        <v>-8.3371392372162595E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12555,11 +12776,11 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-2013793.2741155655</v>
+        <v>-2010920.4724976278</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12589,58 +12810,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1149057.9644766594</v>
+        <v>1149629.9050655104</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2338679444096894</v>
+        <v>1.2344820989436702</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4516093463643405</v>
+        <v>1.4523318811102002</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4516093463643405</v>
+        <v>1.4523318811102002</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4516093463643405</v>
+        <v>1.4523318811102002</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9305898131308754</v>
+        <v>1.9315507591481242</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12650,58 +12871,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>574528.98223832971</v>
+        <v>574814.95253275521</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.61693397220484469</v>
+        <v>0.61724104947183511</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.72580467318217023</v>
+        <v>0.72616594055510009</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.72580467318217023</v>
+        <v>0.72616594055510009</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.72580467318217023</v>
+        <v>0.72616594055510009</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.9652949065654377</v>
+        <v>0.96577537957406212</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12710,7 +12931,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12719,6 +12940,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A146E79-E324-4F67-8FCA-7636B879B33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60BDA5A-98FE-4C20-948B-7A175A05BA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -959,10 +925,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -976,6 +938,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.8649634921177769</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14930937614307849</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.2128562067984476E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3437755566327548E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8284501268352451E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.5622430706520396E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3678,7 +2841,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -3687,15 +2850,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>791575204</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3949,7 +3112,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>25220</v>
@@ -4099,7 +3262,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4195,7 +3358,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4227,7 +3390,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0.15820000000000001</v>
@@ -4245,11 +3408,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.7283368047847544E-2</v>
+        <v>2.7502611263657651E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4294,13 +3457,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4369,7 +3532,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -4382,7 +3545,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -4501,7 +3664,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -4514,7 +3677,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -4704,7 +3867,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>4357429</v>
@@ -4724,7 +3887,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4732,10 +3895,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4745,16 +3908,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4763,10 +3926,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4815,7 +3978,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4836,7 +3999,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4854,7 +4017,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4893,7 +4056,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4911,7 +4074,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4997,8 +4160,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5039,62 +4202,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0710.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.2</v>
+        <v>6.15</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>京东方精电</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>791575204</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>4907.7662648000005</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>4868.1875046000005</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5117,16 +4280,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5141,7 +4304,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5151,40 +4314,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5197,29 +4360,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5229,12 +4392,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5242,9 +4405,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5252,91 +4415,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.8649634921177769</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>-3.702718583213481E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.14930937614307849</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.40315104102095145</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>7.2128562067984476E-4</v>
+      <c r="B22" s="279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>0.99555791091914569</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>-1.4994153881535188E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0391800047768955</v>
+        <v>1.03089594898784</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.3437755566327548E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.466138105158986</v>
+        <v>-12.366761497581379</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>2.8284501268352451E-2</v>
+        <f>Fin_Analysis!I80</f>
+        <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5345,18 +4508,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>-4.5622430706520396E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>2.8284501268352451E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7283368047847544E-2</v>
+        <v>2.7502611263657651E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5366,23 +4529,23 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -5397,31 +4560,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="278">
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="278"/>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5431,7 +4594,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5442,14 +4605,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5459,7 +4622,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5469,14 +4632,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5486,7 +4649,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5501,14 +4664,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6452,7 +5615,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6466,7 +5628,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6493,16 +5655,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6520,7 +5682,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6553,7 +5715,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6920,7 +6082,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6971,7 +6133,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7022,7 +6184,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7073,7 +6235,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7175,7 +6337,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7328,7 +6490,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7838,7 +7000,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8348,7 +7510,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8399,7 +7561,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8468,7 +7630,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8672,7 +7834,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8774,7 +7936,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8792,14 +7954,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>1.5675205973129716</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>0.99555791091914569</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8843,7 +8005,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8894,7 +8056,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8945,7 +8107,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8996,7 +8158,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -9013,7 +8175,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9213,11 +8375,11 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
@@ -9263,7 +8425,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9313,7 +8475,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10741,11 +9903,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-157114.16802371453</v>
+        <v>-156622.15309823514</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0355717681228074</v>
+        <v>1.0354603724348039</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10817,7 +9979,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10975,7 +10137,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11387,7 +10549,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11833,11 +10995,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0391800047768955</v>
+        <v>1.03089594898784</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>61720.018023714154</v>
+        <v>61228.003098234782</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11855,7 +11017,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11869,11 +11031,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>635839</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11884,11 +11046,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11900,11 +11062,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11921,7 +11083,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11998,7 +11160,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12044,7 +11206,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12079,7 +11241,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12118,19 +11280,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12140,18 +11302,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12228,7 +11390,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12258,7 +11420,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12288,7 +11450,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12351,7 +11513,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12381,7 +11543,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12462,7 +11624,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12493,7 +11655,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12514,28 +11676,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0217304795152239E-2</v>
+        <v>-8.0861913621894807E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0217304795152239E-2</v>
+        <v>-8.0861913621894807E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0217304795152239E-2</v>
+        <v>-8.0861913621894807E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12565,21 +11727,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7283368047847544E-2</v>
+        <v>2.7502611263657651E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7283368047847544E-2</v>
+        <v>2.7502611263657651E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7283368047847544E-2</v>
+        <v>2.7502611263657651E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12601,24 +11763,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12635,24 +11797,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9419693261536093</v>
+        <v>-4.9242156016658365</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9419693261536093</v>
+        <v>-4.9242156016658365</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12663,18 +11825,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9211581677063956</v>
+        <v>2.9240031405983595</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9211581677063956</v>
+        <v>2.9240031405983595</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12693,14 +11855,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12717,21 +11879,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1944925.7455728692</v>
+        <v>-1937938.718022265</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.4570321755213409</v>
+        <v>-2.4482054367411248</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.4570321755213409</v>
+        <v>-2.4482054367411248</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.2677671168739599</v>
+        <v>-3.2560278620841419</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12741,14 +11903,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-65994.726924758652</v>
+        <v>-65462.511385042868</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.3371392372162595E-2</v>
+        <v>-8.2699042433677428E-2</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12780,7 +11942,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-2010920.4724976278</v>
+        <v>-2003401.2294073079</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12810,21 +11972,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12837,31 +11999,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1149629.9050655104</v>
+        <v>1150749.5520438426</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2344820989436702</v>
+        <v>1.2356843851279431</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4523318811102002</v>
+        <v>1.4537463354446389</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4523318811102002</v>
+        <v>1.4537463354446389</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4523318811102002</v>
+        <v>1.4537463354446389</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9315507591481242</v>
+        <v>1.9334319340909871</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12871,21 +12033,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12898,31 +12060,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>574814.95253275521</v>
+        <v>575374.77602192131</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.61724104947183511</v>
+        <v>0.61784219256397155</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>0.72616594055510009</v>
+        <v>0.72687316772231947</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.72616594055510009</v>
+        <v>0.72687316772231947</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>0.72616594055510009</v>
+        <v>0.72687316772231947</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>0.96577537957406212</v>
+        <v>0.96671596704549356</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12931,7 +12093,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60BDA5A-98FE-4C20-948B-7A175A05BA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBDFAFB-2819-436B-80DD-04E8ADC0D52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -909,10 +905,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +966,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -2841,7 +2861,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -2850,15 +2870,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>791575204</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3112,7 +3132,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>25220</v>
@@ -3228,9 +3248,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3246,7 +3266,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3262,7 +3282,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3277,10 +3297,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3292,9 +3313,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3341,10 +3362,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3358,9 +3380,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3374,7 +3396,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3390,7 +3412,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <v>0.15820000000000001</v>
@@ -3408,11 +3430,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.7502611263657651E-2</v>
+        <v>2.7235186933127389E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3457,13 +3479,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3483,7 +3505,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59">
         <v>41635</v>
@@ -3495,7 +3517,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>2820142</v>
@@ -3532,7 +3554,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -3545,7 +3567,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -3585,7 +3607,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59">
         <v>0</v>
@@ -3664,7 +3686,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -3677,7 +3699,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -3732,7 +3754,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>2128034</v>
@@ -3867,7 +3889,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>4357429</v>
@@ -3887,7 +3909,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3895,10 +3917,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3906,7 +3928,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3914,10 +3936,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3939,7 +3961,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3978,7 +4000,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3999,7 +4021,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4017,7 +4039,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4056,7 +4078,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4074,7 +4096,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4097,28 +4119,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4160,8 +4187,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4202,7 +4229,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4214,15 +4241,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4242,7 +4269,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4255,7 +4282,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>4868.1875046000005</v>
+        <v>4915.68201684</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4289,7 +4316,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4304,7 +4331,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4314,40 +4341,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4360,29 +4387,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4392,12 +4419,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4407,7 +4434,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4415,21 +4442,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="276">
+        <v>252</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>-3.702718583213481E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4437,69 +4464,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.40315104102095145</v>
+        <v>250</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>0.99555791091914569</v>
+        <v>257</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>-1.4994153881535188E-2</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.03089594898784</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>2.3437755566327548E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.366761497581379</v>
+        <v>-12.488191650509593</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4508,18 +4535,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>2.8284501268352451E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7502611263657651E-2</v>
+        <v>2.7235186933127389E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4529,40 +4556,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="130">
+        <v>160</v>
+      </c>
+      <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="129">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="129" t="e">
         <f>G29*(1+G20)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="131" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="286">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="286" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4570,21 +4597,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4594,25 +4621,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4622,7 +4649,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4632,14 +4659,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4649,7 +4676,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4664,14 +4691,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5571,27 +5598,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5623,12 +5650,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5655,16 +5682,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5682,7 +5709,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5715,7 +5742,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5726,7 +5753,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6082,7 +6109,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6133,7 +6160,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6184,7 +6211,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6235,7 +6262,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6337,7 +6364,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6490,7 +6517,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6745,7 +6772,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6796,7 +6823,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6850,15 +6877,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>10808428</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6898,50 +6925,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>8572255</v>
+        <f>Fin_Analysis!C13</f>
+        <v>2820142</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6949,50 +6976,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>2820142</v>
+        <f>Fin_Analysis!C18</f>
+        <v>1802858</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -7000,101 +7027,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>1802858</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>5753095</v>
+        <f>Fin_Analysis!I15</f>
+        <v>186372</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7102,101 +7129,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>638511</v>
+        <f>Fin_Analysis!I34</f>
+        <v>449467</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>186372</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>635839</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7204,50 +7231,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>449467</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7255,50 +7282,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>635839</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7306,50 +7333,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>4416822</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7357,272 +7384,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>59393</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>6864609</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>3943819</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>-2.3503645048586649E-2</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>6864609</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>-2.3503645048586649E-2</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.8649634921177769</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.86647110650350234</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.94866452234140264</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.92880050294748251</v>
+      </c>
+      <c r="G40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.89954610800626078</v>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.14930937614307849</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.12033870152292019</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>4.6455886273651797E-2</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>5.0511231271457777E-2</v>
+      </c>
+      <c r="G41" s="153">
+        <f t="shared" si="35"/>
+        <v>7.6004385029790331E-2</v>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.8649634921177769</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.86647110650350234</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.94866452234140264</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.92880050294748251</v>
-      </c>
-      <c r="G42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.89954610800626078</v>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>1.8079879981657027E-2</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7630,50 +7657,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.14930937614307849</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.12033870152292019</v>
+        <f t="shared" si="37"/>
+        <v>1.152824457225419E-3</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>4.6455886273651797E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.1824848024856219E-4</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>5.0511231271457777E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.2768079976778883E-4</v>
       </c>
       <c r="G43" s="153">
-        <f t="shared" si="35"/>
-        <v>7.6004385029790331E-2</v>
+        <f t="shared" si="37"/>
+        <v>1.505325438488989E-4</v>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7681,50 +7708,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>7.2128562067984476E-4</v>
+      </c>
+      <c r="D44" s="153">
+        <f t="shared" si="38"/>
+        <v>2.8452688731520977E-3</v>
+      </c>
+      <c r="E44" s="153">
+        <f t="shared" si="38"/>
+        <v>5.3968003296655624E-2</v>
+      </c>
+      <c r="F44" s="153">
+        <f t="shared" si="38"/>
+        <v>1.6852687430480604E-2</v>
+      </c>
+      <c r="G44" s="153">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>1.8079879981657027E-2</v>
-      </c>
-      <c r="E44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7732,50 +7759,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>2.3437755566327548E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>2.8284501268352451E-2</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.152824457225419E-3</v>
+        <f t="shared" si="39"/>
+        <v>9.4324468277089346E-2</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.1824848024856219E-4</v>
+        <f t="shared" si="39"/>
+        <v>3.1920628001524433E-2</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.2768079976778883E-4</v>
+        <f t="shared" si="39"/>
+        <v>1.237045810898992E-2</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.505325438488989E-4</v>
+        <f t="shared" si="39"/>
+        <v>1.9306218449022351E-2</v>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7783,221 +7810,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>7.2128562067984476E-4</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>-4.5622430706520396E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>2.8452688731520977E-3</v>
+        <f t="shared" si="40"/>
+        <v>-0.10321224961554643</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>5.3968003296655624E-2</v>
+        <f t="shared" si="40"/>
+        <v>-8.112728839348303E-2</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>1.6852687430480604E-2</v>
+        <f t="shared" si="40"/>
+        <v>-8.6625605581786332E-3</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>4.9927559710776061E-3</v>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>2.8284501268352451E-2</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>9.4324468277089346E-2</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>3.1920628001524433E-2</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>1.237045810898992E-2</v>
-      </c>
-      <c r="G47" s="153">
-        <f t="shared" si="39"/>
-        <v>1.9306218449022351E-2</v>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>-4.5622430706520396E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>-0.10321224961554643</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>-8.112728839348303E-2</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>-8.6625605581786332E-3</v>
-      </c>
-      <c r="G48" s="153">
-        <f t="shared" si="40"/>
-        <v>4.9927559710776061E-3</v>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0.26208484876421134</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>0.99555791091914569</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0.16754538114511558</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -8005,522 +8032,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0.26208484876421134</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>-14.813743266325055</v>
+      </c>
+      <c r="D51" s="153">
+        <f t="shared" si="44"/>
+        <v>6.4957053603081072E-2</v>
+      </c>
+      <c r="E51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0.16754538114511558</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>-14.813743266325055</v>
-      </c>
-      <c r="D53" s="153">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v>6.4957053603081072E-2</v>
-      </c>
-      <c r="E53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-0.77207647428568138</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.40315104102095145</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-5.1373316159101103E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>-1.1169453834400038E-2</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>-1.4575672697826926E-3</v>
+      </c>
+      <c r="F55" s="153">
+        <f t="shared" si="47"/>
+        <v>-1.4739383223963821E-2</v>
+      </c>
+      <c r="G55" s="153">
+        <f t="shared" si="47"/>
+        <v>3.0150190540237615E-2</v>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-0.77207647428568138</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-5.1373316159101103E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>-1.1169453834400038E-2</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>-1.4575672697826926E-3</v>
-      </c>
-      <c r="F57" s="153">
-        <f t="shared" si="47"/>
-        <v>-1.4739383223963821E-2</v>
-      </c>
-      <c r="G57" s="153">
-        <f t="shared" si="47"/>
-        <v>3.0150190540237615E-2</v>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>1.4900249344048726</v>
-      </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>-3.702718583213481E-2</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>-0.11266192365574594</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9080,12 +9011,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9767,27 +9694,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9901,13 +9831,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>-156622.15309823514</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>1.0354603724348039</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9927,9 +9857,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9979,7 +9909,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10026,7 +9956,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10054,7 +9984,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10137,7 +10067,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10159,7 +10089,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10227,7 +10157,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10549,7 +10479,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10686,7 +10616,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10973,9 +10903,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>P/B Approach</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10993,13 +10923,13 @@
         <f>MAX(D4,0)</f>
         <v>59393</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.03089594898784</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>61228.003098234782</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11017,7 +10947,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11083,7 +11013,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11118,7 +11048,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11139,7 +11069,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11160,7 +11090,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11175,7 +11105,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11206,7 +11136,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11220,7 +11150,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11241,7 +11171,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11256,7 +11186,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11278,7 +11208,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11286,11 +11216,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11318,7 +11248,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11390,7 +11320,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11420,7 +11350,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11450,7 +11380,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11508,12 +11438,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11543,7 +11473,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11573,7 +11503,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11624,7 +11554,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11655,7 +11585,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11676,28 +11606,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0861913621894807E-2</v>
+        <v>-8.0075644896048181E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0861913621894807E-2</v>
+        <v>-8.0075644896048181E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0861913621894807E-2</v>
+        <v>-8.0075644896048181E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11727,21 +11657,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7502611263657651E-2</v>
+        <v>2.7235186933127389E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7502611263657651E-2</v>
+        <v>2.7235186933127389E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7502611263657651E-2</v>
+        <v>2.7235186933127389E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11758,27 +11688,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11797,24 +11727,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9242156016658365</v>
+        <v>-4.9450051425770809</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9242156016658365</v>
+        <v>-4.9450051425770809</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11825,18 +11755,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9240031405983595</v>
+        <v>2.9200179058285811</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9240031405983595</v>
+        <v>2.9200179058285811</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11855,14 +11785,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11875,49 +11805,49 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1937938.718022265</v>
+        <v>-1946120.4995527444</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.4482054367411248</v>
+        <v>-2.4585415128197274</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.4482054367411248</v>
+        <v>-2.4585415128197274</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.2560278620841419</v>
+        <v>-3.2697744828503099</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-65462.511385042868</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.2699042433677428E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11940,29 +11870,29 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>-2003401.2294073079</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11972,21 +11902,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11999,31 +11929,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1150749.5520438426</v>
+        <v>1149181.1518385084</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2356843851279431</v>
+        <v>1.2340002240175427</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4537463354446389</v>
+        <v>1.4517649694324033</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4537463354446389</v>
+        <v>1.4517649694324033</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4537463354446389</v>
+        <v>1.4517649694324033</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9334319340909871</v>
+        <v>1.9307967863848317</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12033,21 +11963,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12060,31 +11990,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>575374.77602192131</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>0.61784219256397155</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>0.72687316772231947</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>0.72687316772231947</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>0.72687316772231947</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>0.96671596704549356</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12093,7 +12023,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBDFAFB-2819-436B-80DD-04E8ADC0D52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA0B8883-8F46-40B6-8AA5-681A8679E644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -945,10 +941,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -978,6 +970,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>266</v>
+      <c r="C4" s="187" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>268</v>
+      <c r="C9" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>791575204</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>269</v>
+      <c r="C11" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>243</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>270</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>271</v>
+      <c r="C19" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>271</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>270</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>272</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,451 +3048,455 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>10760416</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>10722361</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>7737943</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>4526914</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="148">
         <v>3573978</v>
       </c>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>9307367</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>9290616</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>7340712</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>4204600</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="149">
         <v>3214958</v>
       </c>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>1606631</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>1290315</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>359473</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>228660</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <v>271638</v>
       </c>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>25220</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>12361</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>915</v>
       </c>
-      <c r="F29" s="150">
+      <c r="F29" s="149">
         <v>578</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>538</v>
       </c>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>5821</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>22881</v>
       </c>
-      <c r="E30" s="150">
+      <c r="E30" s="149">
         <v>313201</v>
       </c>
-      <c r="F30" s="150">
+      <c r="F30" s="149">
         <v>57218</v>
       </c>
-      <c r="G30" s="150">
+      <c r="G30" s="149">
         <v>0</v>
       </c>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <v>-563737</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <v>193859</v>
       </c>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>202110</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>165770</v>
       </c>
-      <c r="E32" s="150">
+      <c r="E32" s="149">
         <v>247000</v>
       </c>
-      <c r="F32" s="150">
+      <c r="F32" s="149">
         <v>56000</v>
       </c>
-      <c r="G32" s="150">
+      <c r="G32" s="149">
         <v>69000</v>
       </c>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>506463</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>1177151</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="149">
+        <v>6391606</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>4416822</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>59393</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>0.15820000000000001</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.7235186933127389E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>2.7704018519875782E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3567,7 +3579,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -3601,7 +3613,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3615,7 +3627,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3636,10 +3648,10 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120">
+      <c r="C59" s="119">
         <v>0</v>
       </c>
-      <c r="D59" s="195">
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3699,7 +3711,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -3719,7 +3731,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3733,7 +3745,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3748,7 +3760,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3804,16 +3816,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>0</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3841,7 +3853,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3877,21 +3889,21 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83">
+        <v>266</v>
+      </c>
+      <c r="C82" s="214">
         <v>638511</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>267</v>
+      </c>
+      <c r="C83" s="214">
         <v>4357429</v>
       </c>
     </row>
@@ -3909,20 +3921,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3952,10 +3964,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3967,12 +3979,12 @@
         <f>C25</f>
         <v>10760416</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>10760416</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>10760416</v>
       </c>
@@ -3985,75 +3997,75 @@
         <f>C26</f>
         <v>9307367</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.8649634921177769</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>9307367</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>9307367</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>1606631</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.14930937614307849</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>1606631</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>1606631</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>25220</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>25220</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>304353</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>304353</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>304353</v>
       </c>
@@ -4066,12 +4078,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4084,12 +4096,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>7761.333333333333</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>7.2128562067984476E-4</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>7761.3333333333321</v>
       </c>
@@ -4098,16 +4110,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0.15820000000000001</v>
       </c>
@@ -4188,7 +4200,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4240,11 +4252,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>6.21</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>6.1</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4282,7 +4294,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>4915.68201684</v>
+        <v>4828.6087443999995</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4292,11 +4304,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4318,11 +4330,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0006</v>
       </c>
@@ -4330,8 +4342,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4340,10 +4352,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4351,7 +4363,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4359,13 +4371,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4374,12 +4386,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4389,7 +4401,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4400,7 +4412,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4408,13 +4420,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4424,129 +4436,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>-3.702718583213481E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.40315104102095145</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>0.99555791091914569</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>-1.4994153881535188E-2</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>1.0234013711025753</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.488191650509593</v>
+        <v>-12.276855569322453</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>-0.3401182340583494</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7235186933127389E-2</v>
+        <v>2.7704018519875782E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4563,10 +4575,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4574,22 +4586,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130" t="e">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="129" t="e">
+        <v>0</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131" t="e">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="286" t="e">
+        <v>0</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4597,23 +4609,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4621,9 +4633,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4631,17 +4643,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4649,26 +4661,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4676,9 +4688,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4691,16 +4703,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5652,10 +5664,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5681,16 +5693,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5704,11 +5716,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5733,7 +5745,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5741,7 +5753,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5805,47 +5817,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>10760416</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>10722361</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>7737943</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>4526914</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>3573978</v>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5907,47 +5919,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>9307367</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>9290616</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>7340712</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>4204600</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>3214958</v>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5958,47 +5970,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1453049</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>1431745</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>397231</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>322314</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>359020</v>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6009,47 +6021,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1606631</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1290315</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>359473</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>228660</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>271638</v>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6060,47 +6072,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6109,49 +6121,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>7761.333333333333</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>30508</v>
       </c>
-      <c r="E12" s="199">
+      <c r="E12" s="198">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>417601.33333333331</v>
       </c>
-      <c r="F12" s="199">
+      <c r="F12" s="198">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>76290.666666666672</v>
       </c>
-      <c r="G12" s="199">
+      <c r="G12" s="198">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6159,50 +6171,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-1.4994153881535188E-2</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>1.0344923100425363E-2</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>-4.9088411911710039E-2</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>3.8355783505790763E-3</v>
       </c>
-      <c r="G13" s="229">
+      <c r="G13" s="226">
         <f t="shared" si="3"/>
         <v>2.4449506963948854E-2</v>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6210,50 +6222,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-161343.33333333334</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>110922</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>-379843.33333333331</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>17363.333333333328</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>87382</v>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6261,50 +6273,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232" t="str">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v>Turn</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="229">
         <f t="shared" si="5"/>
         <v>-0.80129393544055605</v>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6315,47 +6327,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-563737</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>193859</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6364,49 +6376,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>25220</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>12361</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>915</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="198">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>578</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="198">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>538</v>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6417,47 +6429,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>1.8782731076568044E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>1.5460214406136857E-2</v>
       </c>
-      <c r="E18" s="152">
+      <c r="E18" s="151">
         <f t="shared" si="6"/>
         <v>3.1920628001524433E-2</v>
       </c>
-      <c r="F18" s="152">
+      <c r="F18" s="151">
         <f t="shared" si="6"/>
         <v>1.237045810898992E-2</v>
       </c>
-      <c r="G18" s="152">
+      <c r="G18" s="151">
         <f t="shared" si="6"/>
         <v>1.9306218449022351E-2</v>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6468,47 +6480,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>202110</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>165770</v>
       </c>
-      <c r="E19" s="199">
+      <c r="E19" s="198">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>247000</v>
       </c>
-      <c r="F19" s="199">
+      <c r="F19" s="198">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>56000</v>
       </c>
-      <c r="G19" s="199">
+      <c r="G19" s="198">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>69000</v>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6517,49 +6529,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>4.7067232344920495E-2</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0.10978468268322621</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6570,47 +6582,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>506463</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>1177151</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6621,47 +6633,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-490916.33333333337</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-1106679</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>-627758.33333333326</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>-39214.666666666672</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>17844</v>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6672,47 +6684,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-3.4216823029890292E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>-7.7409187211659819E-2</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>-6.0845466295112276E-2</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>-6.4969204186339754E-3</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="152">
         <f t="shared" si="9"/>
         <v>3.7445669783082044E-3</v>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6723,7 +6735,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-368187.25</v>
       </c>
@@ -6771,50 +6783,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.55640584728423204</v>
       </c>
-      <c r="D25" s="233">
+      <c r="D25" s="230">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-0.76290610771130096</v>
       </c>
-      <c r="E25" s="233">
+      <c r="E25" s="230">
         <f t="shared" si="10"/>
         <v>-15.008253714596576</v>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6878,7 +6890,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>10808428</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6931,43 +6943,43 @@
         <f>Fin_Analysis!C13</f>
         <v>2820142</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6982,43 +6994,43 @@
         <f>Fin_Analysis!C18</f>
         <v>1802858</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7027,49 +7039,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199" t="str">
+        <v>6391606</v>
+      </c>
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7084,43 +7096,43 @@
         <f>Fin_Analysis!I15</f>
         <v>186372</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7135,43 +7147,43 @@
         <f>Fin_Analysis!I34</f>
         <v>449467</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7235,45 +7247,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199" t="str">
+        <v>4416822</v>
+      </c>
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7286,45 +7298,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199" t="str">
+        <v>59393</v>
+      </c>
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7339,43 +7351,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7437,47 +7449,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>-2.3503645048586649E-2</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7486,7 +7498,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7506,47 +7518,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.8649634921177769</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.86647110650350234</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.94866452234140264</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.92880050294748251</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="34"/>
         <v>0.89954610800626078</v>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7555,49 +7567,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.14930937614307849</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.12033870152292019</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>4.6455886273651797E-2</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>5.0511231271457777E-2</v>
       </c>
-      <c r="G41" s="153">
+      <c r="G41" s="152">
         <f t="shared" si="35"/>
         <v>7.6004385029790331E-2</v>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7608,47 +7620,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>1.8079879981657027E-2</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7659,47 +7671,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>1.152824457225419E-3</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>1.1824848024856219E-4</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>1.2768079976778883E-4</v>
       </c>
-      <c r="G43" s="153">
+      <c r="G43" s="152">
         <f t="shared" si="37"/>
         <v>1.505325438488989E-4</v>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7710,47 +7722,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>7.2128562067984476E-4</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>2.8452688731520977E-3</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>5.3968003296655624E-2</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>1.6852687430480604E-2</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7759,49 +7771,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>9.4324468277089346E-2</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>3.1920628001524433E-2</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>1.237045810898992E-2</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="152">
         <f t="shared" si="39"/>
         <v>1.9306218449022351E-2</v>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7812,47 +7824,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>-4.5622430706520396E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>-0.10321224961554643</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>-8.112728839348303E-2</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>-8.6625605581786332E-3</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="152">
         <f t="shared" si="40"/>
         <v>4.9927559710776061E-3</v>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7861,9 +7873,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7878,50 +7892,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272" t="e">
+        <v>0.99555791091914569</v>
+      </c>
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="e">
+      <c r="E48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="272" t="e">
+      <c r="F48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="272" t="e">
+      <c r="G48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7930,49 +7944,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="153">
+        <v>254</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.26208484876421134</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7981,49 +7995,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="153">
+        <v>255</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.16754538114511558</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8032,49 +8046,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="153">
+        <v>245</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-14.813743266325055</v>
       </c>
-      <c r="D51" s="153">
+      <c r="D51" s="152">
         <f t="shared" si="44"/>
         <v>6.4957053603081072E-2</v>
       </c>
-      <c r="E51" s="153" t="e">
+      <c r="E51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="153" t="e">
+      <c r="F51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8083,7 +8097,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8100,49 +8114,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>249</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156" t="str">
+        <v>0.40315104102095145</v>
+      </c>
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8152,47 +8166,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-0.77207647428568138</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8202,47 +8216,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-5.1373316159101103E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>-1.1169453834400038E-2</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>-1.4575672697826926E-3</v>
       </c>
-      <c r="F55" s="153">
+      <c r="F55" s="152">
         <f t="shared" si="47"/>
         <v>-1.4739383223963821E-2</v>
       </c>
-      <c r="G55" s="153">
+      <c r="G55" s="152">
         <f t="shared" si="47"/>
         <v>3.0150190540237615E-2</v>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8252,47 +8266,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8300,149 +8314,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>250</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274" t="e">
+        <v>-3.702718583213481E-2</v>
+      </c>
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="e">
+      <c r="F58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="274" t="e">
+      <c r="G58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274" t="e">
+        <v>-0.11266192365574594</v>
+      </c>
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="e">
+      <c r="F59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="274" t="e">
+      <c r="G59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9738,8 +9752,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9775,8 +9789,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>4416822</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9788,8 +9802,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>4357429</v>
       </c>
       <c r="K3" s="24"/>
@@ -9799,8 +9813,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>59393</v>
       </c>
       <c r="E4" s="37"/>
@@ -9831,13 +9845,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-156177.02763389563</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>1.0353595928552013</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9857,9 +9871,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9887,11 +9901,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9934,7 +9948,7 @@
         <f>Inputs!C48</f>
         <v>3496104</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9962,7 +9976,7 @@
         <f>Inputs!C49</f>
         <v>41635</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9990,7 +10004,7 @@
         <f>Inputs!C50</f>
         <v>2820142</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10018,7 +10032,7 @@
         <f>Inputs!C51</f>
         <v>405832</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10031,7 +10045,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10046,7 +10060,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10073,7 +10087,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10095,7 +10109,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10117,7 +10131,7 @@
         <f>Inputs!C55</f>
         <v>1802858</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10138,7 +10152,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10146,7 +10160,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10163,7 +10177,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10171,7 +10185,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10190,7 +10204,7 @@
         <f>Inputs!C58</f>
         <v>5684</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10211,7 +10225,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10376,7 +10390,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>5753095</v>
       </c>
@@ -10405,7 +10419,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10431,7 +10445,7 @@
         <f>Inputs!C61</f>
         <v>41883</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10458,7 +10472,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10485,7 +10499,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10501,7 +10515,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10515,7 +10529,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10542,7 +10556,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10550,7 +10564,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10568,7 +10582,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10576,7 +10590,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10595,7 +10609,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10603,7 +10617,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10622,7 +10636,7 @@
         <f>Inputs!C68</f>
         <v>2128034</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10643,7 +10657,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10664,7 +10678,7 @@
         <f>Inputs!C70</f>
         <v>27391</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10685,7 +10699,7 @@
         <f>Inputs!C71</f>
         <v>38865</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10706,7 +10720,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10852,8 +10866,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>638511</v>
       </c>
       <c r="J48" s="8"/>
@@ -10879,8 +10893,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>6391606</v>
       </c>
       <c r="J49" s="87"/>
@@ -10903,9 +10917,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>P/B Approach</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10923,13 +10937,13 @@
         <f>MAX(D4,0)</f>
         <v>59393</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1.0234013711025753</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>60782.877633895259</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10950,7 +10964,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11050,7 +11064,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>3496104</v>
       </c>
@@ -11058,7 +11072,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>3146493.6</v>
       </c>
@@ -11089,11 +11103,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>635839</v>
@@ -11170,12 +11184,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>5755767</v>
       </c>
@@ -11254,17 +11268,17 @@
         <f>Data!C6</f>
         <v>10760416</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>10760416</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>10760416</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11275,23 +11289,23 @@
         <f>Data!C8</f>
         <v>9307367</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.8649634921177769</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>9307367</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.8649634921177769</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>9307367</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.8649634921177769</v>
       </c>
@@ -11301,48 +11315,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>1453049</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>1453049</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>1453049</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>1606631</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.14930937614307849</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>1606631</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.14930937614307849</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>1606631</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.14930937614307849</v>
       </c>
@@ -11356,54 +11370,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>7761.333333333333</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>7.2128562067984476E-4</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>7761.3333333333321</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>7.2128562067984476E-4</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>7761.3333333333321</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>7.2128562067984476E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>-161343.33333333334</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>-1.4994153881535188E-2</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>-161343.33333333334</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>-1.4994153881535188E-2</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>-161343.33333333334</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>-1.4994153881535188E-2</v>
       </c>
@@ -11417,55 +11431,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>25220</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>25220</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>25220</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>2.3437755566327548E-3</v>
       </c>
@@ -11473,29 +11487,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>304353</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>304353</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>304353</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>2.8284501268352451E-2</v>
       </c>
@@ -11505,27 +11519,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>-490916.33333333337</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>-4.5622430706520396E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>-490916.33333333337</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>-4.5622430706520396E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>-490916.33333333337</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>-4.5622430706520396E-2</v>
       </c>
@@ -11535,49 +11549,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>-368187.25</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>-3.4216823029890292E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>-368187.25</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>-3.4216823029890292E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>-368187.25</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>-3.4216823029890292E-2</v>
       </c>
@@ -11587,69 +11601,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-0.46513236915389783</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-0.46513236915389783</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-0.46513236915389783</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0075644896048181E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>-8.1454081979982842E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0075644896048181E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>-8.1454081979982842E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.0075644896048181E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>-8.1454081979982842E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>-0.3401182340583494</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>-0.3401182340583494</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>-0.3401182340583494</v>
       </c>
@@ -11657,23 +11671,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7235186933127389E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>2.7704018519875782E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7235186933127389E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>2.7704018519875782E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7235186933127389E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>2.7704018519875782E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11695,7 +11709,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11718,27 +11732,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9450051425770809</v>
+        <v>-4.9041208457695946</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9450051425770809</v>
+        <v>-4.9041208457695946</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11746,27 +11760,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9200179058285811</v>
+        <v>2.9243341424018836</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9200179058285811</v>
+        <v>2.9243341424018836</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11780,25 +11794,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11809,21 +11823,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1946120.4995527444</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>-1930030.3710629323</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.4585415128197274</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>-2.4382147916080155</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.4585415128197274</v>
-      </c>
-      <c r="I97" s="123">
+        <v>-2.4382147916080155</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.2697744828503099</v>
+        <v>-3.2427406524303222</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11831,18 +11845,18 @@
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-64930.295845327077</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-8.202669249519226E-2</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11853,46 +11867,46 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>-1994960.6669082593</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11904,25 +11918,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11933,27 +11947,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1149181.1518385084</v>
+        <v>1150879.8187223703</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2340002240175427</v>
-      </c>
-      <c r="E103" s="123">
+        <v>1.2358242665645889</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4517649694324033</v>
+        <v>1.4539109018406928</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4517649694324033</v>
-      </c>
-      <c r="H103" s="123">
+        <v>1.4539109018406928</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4517649694324033</v>
+        <v>1.4539109018406928</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9307967863848317</v>
+        <v>1.9336508016593184</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11965,25 +11979,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11992,29 +12006,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>575439.90936118516</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>0.61791213328229444</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>0.72695545092034641</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>0.72695545092034641</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>0.72695545092034641</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>0.96682540082965918</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12025,14 +12039,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA0B8883-8F46-40B6-8AA5-681A8679E644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9DF4DE-33F7-4F35-BD1D-D3AE3B224145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.7704018519875782E-2</v>
+        <v>2.770315389555009E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4343,7 +4343,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0234013711025753</v>
+        <v>1.0234333117878756</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.276855569322453</v>
+        <v>-12.2772387339256</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7704018519875782E-2</v>
+        <v>2.770315389555009E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9847,11 +9847,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-156177.02763389563</v>
+        <v>-156178.92468701766</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0353595928552013</v>
+        <v>1.0353600223615571</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10939,11 +10939,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0234013711025753</v>
+        <v>1.0234333117878756</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>60782.877633895259</v>
+        <v>60784.774687017292</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11624,17 +11624,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.1454081979982842E-2</v>
+        <v>-8.1451539851278426E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.1454081979982842E-2</v>
+        <v>-8.1451539851278426E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.1454081979982842E-2</v>
+        <v>-8.1451539851278426E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11675,17 +11675,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7704018519875782E-2</v>
+        <v>2.770315389555009E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7704018519875782E-2</v>
+        <v>2.770315389555009E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7704018519875782E-2</v>
+        <v>2.770315389555009E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11745,14 +11745,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9041208457695946</v>
+        <v>-4.9040356518020891</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9041208457695946</v>
+        <v>-4.9040356518020891</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11773,14 +11773,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9243341424018836</v>
+        <v>2.9242305747951645</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9243341424018836</v>
+        <v>2.9242305747951645</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11823,21 +11823,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1930030.3710629323</v>
+        <v>-1929996.8427405502</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.4382147916080155</v>
+        <v>-2.4381724351493839</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.4382147916080155</v>
+        <v>-2.4381724351493839</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.2427406524303222</v>
+        <v>-3.2426843198173096</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11847,14 +11847,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-64930.295845327077</v>
+        <v>-64930.295845327069</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.202669249519226E-2</v>
+        <v>-8.2026692495192247E-2</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-1994960.6669082593</v>
+        <v>-1994927.1385858771</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11947,27 +11947,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1150879.8187223703</v>
+        <v>1150839.059403277</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2358242665645889</v>
+        <v>1.2357804988706862</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4539109018406928</v>
+        <v>1.4538594104361016</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.4539109018406928</v>
+        <v>1.4538594104361016</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4539109018406928</v>
+        <v>1.4538594104361016</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9336508016593184</v>
+        <v>1.9335823198867141</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12008,27 +12008,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>575439.90936118516</v>
+        <v>575419.5297016385</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.61791213328229444</v>
+        <v>0.6178902494353431</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>0.72695545092034641</v>
+        <v>0.72692970521805078</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>0.72695545092034641</v>
+        <v>0.72692970521805078</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>0.72695545092034641</v>
+        <v>0.72692970521805078</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>0.96682540082965918</v>
+        <v>0.96679115994335707</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9DF4DE-33F7-4F35-BD1D-D3AE3B224145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D9FF6AD-7904-40CB-823D-57A018E20E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -965,10 +958,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -986,6 +975,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>791575204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>791575204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>274</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,467 +3039,468 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>10760416</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>10722361</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>7737943</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>4526914</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="147">
         <v>3573978</v>
       </c>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>9307367</v>
+      </c>
+      <c r="D26" s="148">
+        <v>9290616</v>
+      </c>
+      <c r="E26" s="148">
+        <v>7340712</v>
+      </c>
+      <c r="F26" s="148">
+        <v>4204600</v>
+      </c>
+      <c r="G26" s="148">
+        <v>3214958</v>
+      </c>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>1606631</v>
+      </c>
+      <c r="D27" s="148">
+        <v>1290315</v>
+      </c>
+      <c r="E27" s="148">
+        <v>359473</v>
+      </c>
+      <c r="F27" s="148">
+        <v>228660</v>
+      </c>
+      <c r="G27" s="148">
+        <v>271638</v>
+      </c>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>9307367</v>
-      </c>
-      <c r="D26" s="149">
-        <v>9290616</v>
-      </c>
-      <c r="E26" s="149">
-        <v>7340712</v>
-      </c>
-      <c r="F26" s="149">
-        <v>4204600</v>
-      </c>
-      <c r="G26" s="149">
-        <v>3214958</v>
-      </c>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>25220</v>
+      </c>
+      <c r="D29" s="148">
+        <v>12361</v>
+      </c>
+      <c r="E29" s="148">
+        <v>915</v>
+      </c>
+      <c r="F29" s="148">
+        <v>578</v>
+      </c>
+      <c r="G29" s="148">
+        <v>538</v>
+      </c>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>5821</v>
+      </c>
+      <c r="D30" s="148">
+        <v>22881</v>
+      </c>
+      <c r="E30" s="148">
+        <v>313201</v>
+      </c>
+      <c r="F30" s="148">
+        <v>57218</v>
+      </c>
+      <c r="G30" s="148">
+        <v>0</v>
+      </c>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148">
+        <v>-563737</v>
+      </c>
+      <c r="D31" s="148">
+        <v>193859</v>
+      </c>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>1606631</v>
-      </c>
-      <c r="D27" s="149">
-        <v>1290315</v>
-      </c>
-      <c r="E27" s="149">
-        <v>359473</v>
-      </c>
-      <c r="F27" s="149">
-        <v>228660</v>
-      </c>
-      <c r="G27" s="149">
-        <v>271638</v>
-      </c>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148">
+        <v>202110</v>
+      </c>
+      <c r="D32" s="148">
+        <v>165770</v>
+      </c>
+      <c r="E32" s="148">
+        <v>247000</v>
+      </c>
+      <c r="F32" s="148">
+        <v>56000</v>
+      </c>
+      <c r="G32" s="148">
+        <v>69000</v>
+      </c>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>25220</v>
-      </c>
-      <c r="D29" s="149">
-        <v>12361</v>
-      </c>
-      <c r="E29" s="149">
-        <v>915</v>
-      </c>
-      <c r="F29" s="149">
-        <v>578</v>
-      </c>
-      <c r="G29" s="149">
-        <v>538</v>
-      </c>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>5821</v>
-      </c>
-      <c r="D30" s="149">
-        <v>22881</v>
-      </c>
-      <c r="E30" s="149">
-        <v>313201</v>
-      </c>
-      <c r="F30" s="149">
-        <v>57218</v>
-      </c>
-      <c r="G30" s="149">
-        <v>0</v>
-      </c>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149">
-        <v>-563737</v>
-      </c>
-      <c r="D31" s="149">
-        <v>193859</v>
-      </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
-        <v>202110</v>
-      </c>
-      <c r="D32" s="149">
-        <v>165770</v>
-      </c>
-      <c r="E32" s="149">
-        <v>247000</v>
-      </c>
-      <c r="F32" s="149">
-        <v>56000</v>
-      </c>
-      <c r="G32" s="149">
-        <v>69000</v>
-      </c>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="C33" s="148">
         <v>506463</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <v>1177151</v>
       </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="148">
         <v>6391606</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>4416822</v>
+      </c>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>4416822</v>
-      </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>59393</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <v>0.15820000000000001</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.770315389555009E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>2.7651771782397964E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <v>3496104</v>
@@ -3513,11 +3508,11 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59">
         <v>41635</v>
@@ -3525,11 +3520,11 @@
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59">
         <v>2820142</v>
@@ -3538,11 +3533,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59">
         <v>405832</v>
@@ -3550,11 +3545,11 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59">
         <v>0</v>
@@ -3562,11 +3557,11 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59">
         <v>0</v>
@@ -3575,11 +3570,11 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59">
         <v>0</v>
@@ -3587,11 +3582,11 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59">
         <v>1802858</v>
@@ -3600,11 +3595,11 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59">
         <v>0</v>
@@ -3613,13 +3608,13 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59">
         <v>0</v>
@@ -3627,13 +3622,13 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59">
         <v>5684</v>
@@ -3642,24 +3637,24 @@
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118">
         <v>0</v>
       </c>
-      <c r="D59" s="194">
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59">
         <v>0</v>
@@ -3668,11 +3663,11 @@
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59">
         <v>41883</v>
@@ -3681,11 +3676,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59">
         <v>0</v>
@@ -3694,11 +3689,11 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59">
         <v>0</v>
@@ -3707,11 +3702,11 @@
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59">
         <v>0</v>
@@ -3719,11 +3714,11 @@
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <v>0</v>
@@ -3731,13 +3726,13 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59">
         <v>0</v>
@@ -3745,13 +3740,13 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59">
         <v>0</v>
@@ -3760,13 +3755,13 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <v>2128034</v>
@@ -3775,11 +3770,11 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59">
         <v>0</v>
@@ -3788,11 +3783,11 @@
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <v>27391</v>
@@ -3800,11 +3795,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>38865</v>
@@ -3813,23 +3808,23 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242">
         <v>0</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59">
         <v>174488</v>
@@ -3837,7 +3832,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59">
         <v>11884</v>
@@ -3845,27 +3840,27 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>5753095</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59">
         <v>432202</v>
@@ -3873,7 +3868,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59">
         <v>17265</v>
@@ -3881,77 +3876,77 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="214">
+        <v>263</v>
+      </c>
+      <c r="C82" s="212">
         <v>638511</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="214">
+        <v>264</v>
+      </c>
+      <c r="C83" s="212">
         <v>4357429</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3960,166 +3955,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>10760416</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>10760416</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>10760416</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>9307367</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.8649634921177769</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>9307367</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>9307367</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>1606631</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.14930937614307849</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>1606631</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>1606631</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>25220</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>25220</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>304353</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>304353</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>304353</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>7761.333333333333</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>7.2128562067984476E-4</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>7761.3333333333321</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0.15820000000000001</v>
       </c>
@@ -4132,32 +4127,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4216,13 +4211,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4233,82 +4228,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0710.HK : 京东方精电</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0710.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>6.1</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>6.11</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>京东方精电</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>791575204</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>4828.6087443999995</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>4836.5244964400008</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4319,31 +4314,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0006</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4352,280 +4347,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>-3.702718583213481E-2</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.40315104102095145</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>0.99555791091914569</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>-1.4994153881535188E-2</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0234333117878756</v>
+        <v>1.0253350404237025</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.2772387339256</v>
+        <v>-12.300052117269948</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>-0.3401182340583494</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.770315389555009E-2</v>
+        <v>2.7651771782397964E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
         <v>0</v>
       </c>
-      <c r="D29" s="128">
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="286">
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="286"/>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4633,9 +4628,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4643,17 +4638,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4661,26 +4656,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4688,9 +4683,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4703,16 +4698,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5664,10 +5659,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5693,59 +5688,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>-161343.33333333334</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5753,19 +5748,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5814,928 +5809,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>10760416</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>10722361</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>7737943</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>4526914</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>3573978</v>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>3.5491250481121117E-3</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>0.38568622177754475</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>0.70931963805806775</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f t="shared" si="1"/>
         <v>0.266631747593298</v>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>9307367</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>9290616</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>7340712</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>4204600</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>3214958</v>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1453049</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>1431745</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>397231</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>322314</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>359020</v>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1606631</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1290315</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>359473</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>228660</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>271638</v>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>7761.333333333333</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>30508</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="196">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>417601.33333333331</v>
       </c>
-      <c r="F12" s="198">
+      <c r="F12" s="196">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>76290.666666666672</v>
       </c>
-      <c r="G12" s="198">
+      <c r="G12" s="196">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-1.4994153881535188E-2</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>1.0344923100425363E-2</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>-4.9088411911710039E-2</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>3.8355783505790763E-3</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="224">
         <f t="shared" si="3"/>
         <v>2.4449506963948854E-2</v>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-161343.33333333334</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>110922</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>-379843.33333333331</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>17363.333333333328</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>87382</v>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229" t="str">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227" t="str">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v>Turn</v>
       </c>
-      <c r="F15" s="229">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>-0.80129393544055605</v>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-563737</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>193859</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>25220</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>12361</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>915</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="196">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>578</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="196">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>538</v>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>1.8782731076568044E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>1.5460214406136857E-2</v>
       </c>
-      <c r="E18" s="151">
+      <c r="E18" s="150">
         <f t="shared" si="6"/>
         <v>3.1920628001524433E-2</v>
       </c>
-      <c r="F18" s="151">
+      <c r="F18" s="150">
         <f t="shared" si="6"/>
         <v>1.237045810898992E-2</v>
       </c>
-      <c r="G18" s="151">
+      <c r="G18" s="150">
         <f t="shared" si="6"/>
         <v>1.9306218449022351E-2</v>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>202110</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>165770</v>
       </c>
-      <c r="E19" s="198">
+      <c r="E19" s="196">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v>247000</v>
       </c>
-      <c r="F19" s="198">
+      <c r="F19" s="196">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v>56000</v>
       </c>
-      <c r="G19" s="198">
+      <c r="G19" s="196">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v>69000</v>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>4.7067232344920495E-2</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0.10978468268322621</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>506463</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>1177151</v>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-490916.33333333337</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-1106679</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>-627758.33333333326</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>-39214.666666666672</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>17844</v>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-3.4216823029890292E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>-7.7409187211659819E-2</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>-6.0845466295112276E-2</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>-6.4969204186339754E-3</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f t="shared" si="9"/>
         <v>3.7445669783082044E-3</v>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-368187.25</v>
       </c>
@@ -6779,63 +6774,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.55640584728423204</v>
       </c>
-      <c r="D25" s="230">
+      <c r="D25" s="228">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-0.76290610771130096</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="228">
         <f t="shared" si="10"/>
         <v>-15.008253714596576</v>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v>Turn</v>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6881,11 +6876,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6932,266 +6927,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>2820142</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>1802858</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>261</v>
+      <c r="B30" s="93" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>6391606</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>186372</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>449467</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7238,165 +7233,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>4416822</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>59393</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7442,63 +7437,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>-2.3503645048586649E-2</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7511,372 +7506,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.8649634921177769</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.86647110650350234</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.94866452234140264</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.92880050294748251</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="154">
         <f t="shared" si="34"/>
         <v>0.89954610800626078</v>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.14930937614307849</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.12033870152292019</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>4.6455886273651797E-2</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>5.0511231271457777E-2</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="151">
         <f t="shared" si="35"/>
         <v>7.6004385029790331E-2</v>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>1.8079879981657027E-2</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152">
+      <c r="G42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>1.152824457225419E-3</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>1.1824848024856219E-4</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>1.2768079976778883E-4</v>
       </c>
-      <c r="G43" s="152">
+      <c r="G43" s="151">
         <f t="shared" si="37"/>
         <v>1.505325438488989E-4</v>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>7.2128562067984476E-4</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>2.8452688731520977E-3</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>5.3968003296655624E-2</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>1.6852687430480604E-2</v>
       </c>
-      <c r="G44" s="152">
+      <c r="G44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>9.4324468277089346E-2</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>3.1920628001524433E-2</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>1.237045810898992E-2</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="151">
         <f t="shared" si="39"/>
         <v>1.9306218449022351E-2</v>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>-4.5622430706520396E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>-0.10321224961554643</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>-8.112728839348303E-2</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>-8.6625605581786332E-3</v>
       </c>
-      <c r="G46" s="152">
+      <c r="G46" s="151">
         <f t="shared" si="40"/>
         <v>4.9927559710776061E-3</v>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>265</v>
+      <c r="B47" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>262</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7888,216 +7883,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>0.99555791091914569</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="e">
+      <c r="E48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="269" t="e">
+      <c r="F48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G48" s="269" t="e">
+      <c r="G48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.26208484876421134</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0.16754538114511558</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-14.813743266325055</v>
       </c>
-      <c r="D51" s="152">
+      <c r="D51" s="151">
         <f t="shared" si="44"/>
         <v>6.4957053603081072E-2</v>
       </c>
-      <c r="E51" s="152" t="e">
+      <c r="E51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="152" t="e">
+      <c r="F51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>248</v>
+      <c r="B52" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8113,350 +8108,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.40315104102095145</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-0.77207647428568138</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-5.1373316159101103E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>-1.1169453834400038E-2</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>-1.4575672697826926E-3</v>
       </c>
-      <c r="F55" s="152">
+      <c r="F55" s="151">
         <f t="shared" si="47"/>
         <v>-1.4739383223963821E-2</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="151">
         <f t="shared" si="47"/>
         <v>3.0150190540237615E-2</v>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>-3.702718583213481E-2</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="e">
+      <c r="E58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="271" t="e">
+      <c r="F58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="271" t="e">
+      <c r="G58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>-0.11266192365574594</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="e">
+      <c r="E59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="271" t="e">
+      <c r="F59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="271" t="e">
+      <c r="G59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9735,7 +9730,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9753,7 +9748,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9771,25 +9766,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>4416822</v>
       </c>
@@ -9797,12 +9792,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>4357429</v>
       </c>
@@ -9810,28 +9805,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>59393</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9844,25 +9839,25 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-156178.92468701766</v>
+        <v>-156291.87405588533</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0353600223615571</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+        <v>1.0353855949041835</v>
+      </c>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>1.1756650985252286</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9870,7 +9865,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9880,287 +9875,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>1.1756650985252286</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>3496104</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>3146493.6</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>174488</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>41635</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>33308</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>11884</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>2820142</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>1692085.2</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>405832</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>243499.19999999998</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>186372</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>1802858</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>901429</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10171,21 +10166,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10198,45 +10193,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>5684</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>5115.6000000000004</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10244,17 +10239,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10264,19 +10259,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.75629850054252745</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>5115386</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.84945947400987987</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10286,17 +10281,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>0</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10305,7 +10300,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10315,17 +10310,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>901429</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0.14969103097933412</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10338,7 +10333,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10348,17 +10343,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0.9</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>5115.6000000000004</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>8.4949501078607594E-4</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10385,12 +10380,12 @@
         <f>SUM(E24:E27)</f>
         <v>6021930.5999999996</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>5753095</v>
       </c>
@@ -10400,171 +10395,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>432202</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>41883</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>25129.8</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>17265</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>449467</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10572,25 +10567,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10598,26 +10593,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10625,113 +10620,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>2128034</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>212803.40000000002</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>27391</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>1369.5500000000002</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>38865</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>34978.5</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10739,17 +10734,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10759,16 +10754,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.6</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>25129.8</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10778,16 +10773,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10797,14 +10792,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.1</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>212803.40000000002</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10817,7 +10812,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10827,14 +10822,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.54860012678097081</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>36348.050000000003</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10847,13 +10842,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>2236173</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.12265654312076928</v>
       </c>
@@ -10861,12 +10856,12 @@
         <f>SUM(E30:E42)</f>
         <v>274281.25</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>638511</v>
       </c>
@@ -10877,109 +10872,109 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>10808428</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.58252799111952258</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>6296211.8499999996</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>6391606</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>P/B Approach</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>59393</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0234333117878756</v>
-      </c>
-      <c r="E53" s="88">
+        <v>1.0253350404237025</v>
+      </c>
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>60784.774687017292</v>
-      </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+        <v>60897.724055884959</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>635839</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10987,61 +10982,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11055,35 +11050,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>268629</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>3496104</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>3146493.6</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11097,29 +11092,29 @@
         <f>E61+E62</f>
         <v>3415122.6</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>635839</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11133,9 +11128,9 @@
         <f>E63-E64</f>
         <v>2779283.6</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11143,28 +11138,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11178,29 +11173,29 @@
         <f>E49-E63</f>
         <v>2881089.2499999995</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>5755767</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11214,29 +11209,29 @@
         <f>E68-E69</f>
         <v>-2874677.7500000005</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11246,66 +11241,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>10760416</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>10760416</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>10760416</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>9307367</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.8649634921177769</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>9307367</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.8649634921177769</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>9307367</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.8649634921177769</v>
       </c>
@@ -11313,50 +11308,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>1453049</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>1453049</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>1453049</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>1606631</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.14930937614307849</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>1606631</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.14930937614307849</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>1606631</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.14930937614307849</v>
       </c>
@@ -11364,60 +11359,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>7761.333333333333</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>7.2128562067984476E-4</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>7761.3333333333321</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>7.2128562067984476E-4</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>7761.3333333333321</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>7.2128562067984476E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>-161343.33333333334</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>-1.4994153881535188E-2</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>-161343.33333333334</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>-1.4994153881535188E-2</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>-161343.33333333334</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>-1.4994153881535188E-2</v>
       </c>
@@ -11425,61 +11420,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>25220</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>25220</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>2.3437755566327548E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>25220</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>2.3437755566327548E-3</v>
       </c>
@@ -11487,59 +11482,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>304353</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>304353</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>2.8284501268352451E-2</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>304353</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>2.8284501268352451E-2</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>-490916.33333333337</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>-4.5622430706520396E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>-490916.33333333337</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>-4.5622430706520396E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>-490916.33333333337</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>-4.5622430706520396E-2</v>
       </c>
@@ -11547,184 +11542,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>-368187.25</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>-3.4216823029890292E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>-368187.25</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>-3.4216823029890292E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>-368187.25</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>-3.4216823029890292E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-0.46513236915389783</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-0.46513236915389783</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-0.46513236915389783</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.1451539851278426E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>-8.1300468523702041E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.1451539851278426E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>-8.1300468523702041E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.1451539851278426E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>-8.1300468523702041E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>-0.3401182340583494</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>-0.3401182340583494</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>-0.3401182340583494</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.770315389555009E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>2.7651771782397964E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.770315389555009E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>2.7651771782397964E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.770315389555009E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>2.7651771782397964E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11732,55 +11727,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9040356518020891</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>-4.9069976554058909</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9040356518020891</v>
+        <v>-4.9069976554058909</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9242305747951645</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>2.9228610387782203</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9242305747951645</v>
+        <v>2.9228610387782203</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11790,121 +11785,121 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1929996.8427405502</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>-1931162.5474803643</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.4381724351493839</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>-2.4396450744310636</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.4381724351493839</v>
-      </c>
-      <c r="I97" s="122">
+        <v>-2.4396450744310636</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.2426843198173096</v>
+        <v>-3.2446428787110975</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-65036.738953270222</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-8.2161162482889266E-2</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>-64930.295845327069</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.2026692495192247E-2</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-1994927.1385858771</v>
-      </c>
-      <c r="D100" s="109">
+        <v>-1996199.2864336346</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
         <v>0</v>
       </c>
-      <c r="E100" s="109">
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
         <v>0</v>
       </c>
-      <c r="F100" s="109">
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
         <v>0</v>
       </c>
-      <c r="H100" s="109">
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
         <v>0</v>
       </c>
-      <c r="I100" s="109">
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
         <v>0</v>
       </c>
@@ -11916,58 +11911,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1150839.059403277</v>
-      </c>
-      <c r="D103" s="109">
+        <v>1150300.0747024314</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2357804988706862</v>
-      </c>
-      <c r="E103" s="122">
+        <v>1.2352017326417752</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4538594104361016</v>
-      </c>
-      <c r="F103" s="109">
+        <v>1.453178508990324</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.4538594104361016</v>
-      </c>
-      <c r="H103" s="122">
+        <v>1.453178508990324</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4538594104361016</v>
-      </c>
-      <c r="I103" s="109">
+        <v>1.453178508990324</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9335823198867141</v>
+        <v>1.9326767447068238</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11977,58 +11972,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>575419.5297016385</v>
-      </c>
-      <c r="D106" s="109">
+        <v>575150.03735121572</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>0.6178902494353431</v>
-      </c>
-      <c r="E106" s="122">
+        <v>0.61760086632088762</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>0.72692970521805078</v>
-      </c>
-      <c r="F106" s="109">
+        <v>0.72658925449516198</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>0.72692970521805078</v>
-      </c>
-      <c r="H106" s="122">
+        <v>0.72658925449516198</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>0.72692970521805078</v>
-      </c>
-      <c r="I106" s="122">
+        <v>0.72658925449516198</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>0.96679115994335707</v>
+        <v>0.96633837235341191</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12037,15 +12032,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D9FF6AD-7904-40CB-823D-57A018E20E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86A0D02C-F45F-4C68-B94C-397C0B47E73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3440,7 +3457,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.7651771782397964E-2</v>
+        <v>2.7591140455929548E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3937,11 +3954,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3955,10 +3972,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4180,8 +4197,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4194,8 +4214,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4238,60 +4258,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0710.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>京东方精电</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>791575204</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>4836.5244964400008</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>4844.4402484800003</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4314,11 +4334,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4338,7 +4358,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4459,7 +4479,7 @@
         <v>249</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>-3.702718583213481E-2</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4471,20 +4491,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.40315104102095145</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>-1.4994153881535188E-2</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>0.99555791091914569</v>
       </c>
@@ -4493,26 +4513,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>-1.4994153881535188E-2</v>
+      <c r="B23" s="275" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>2.480459922582789</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0253350404237025</v>
+        <v>1.0275882065686373</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>2.3437755566327548E-3</v>
       </c>
@@ -4521,7 +4541,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.300052117269948</v>
+        <v>-12.32708139055033</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4553,7 +4573,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7651771782397964E-2</v>
+        <v>2.7591140455929548E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4572,10 +4592,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4594,11 +4614,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="285">
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="285"/>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5629,7 +5649,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7870,7 +7890,7 @@
       <c r="B47" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>262</v>
       </c>
       <c r="D47" s="36"/>
@@ -9797,7 +9817,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>4357429</v>
       </c>
@@ -9842,11 +9862,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-156291.87405588533</v>
+        <v>-156425.69635273144</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0353855949041835</v>
+        <v>1.0354158932265622</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10844,7 +10864,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>2236173</v>
       </c>
@@ -10861,7 +10881,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>638511</v>
       </c>
@@ -10934,11 +10954,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0253350404237025</v>
+        <v>1.0275882065686373</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>60897.724055884959</v>
+        <v>61031.546352731071</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -10970,11 +10990,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>635839</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10985,11 +11005,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -11001,11 +11021,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11219,19 +11239,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11241,18 +11261,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11619,17 +11639,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.1300468523702041E-2</v>
+        <v>-8.112220308422545E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.1300468523702041E-2</v>
+        <v>-8.112220308422545E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.1300468523702041E-2</v>
+        <v>-8.112220308422545E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11670,17 +11690,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7651771782397964E-2</v>
+        <v>2.7591140455929548E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7651771782397964E-2</v>
+        <v>2.7591140455929548E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7651771782397964E-2</v>
+        <v>2.7591140455929548E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11711,15 +11731,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11740,14 +11760,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9069976554058909</v>
+        <v>-4.9090116695379447</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9069976554058909</v>
+        <v>-4.9090116695379447</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11768,14 +11788,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9228610387782203</v>
+        <v>2.9203637429267388</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9228610387782203</v>
+        <v>2.9203637429267388</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11818,21 +11838,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1931162.5474803643</v>
+        <v>-1931955.1683322683</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.4396450744310636</v>
+        <v>-2.4406463954020827</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.4396450744310636</v>
+        <v>-2.4406463954020827</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.2446428787110975</v>
+        <v>-3.2459746006865489</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11842,14 +11862,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-65036.738953270222</v>
+        <v>-65143.182061213389</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.2161162482889266E-2</v>
+        <v>-8.2295632470586313E-2</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11881,7 +11901,7 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-1996199.2864336346</v>
+        <v>-1997098.3503934816</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11942,27 +11962,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1150300.0747024314</v>
+        <v>1149317.2569884171</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2352017326417752</v>
+        <v>1.2341463748530388</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.453178508990324</v>
+        <v>1.4519369115918104</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.453178508990324</v>
+        <v>1.4519369115918104</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.453178508990324</v>
+        <v>1.4519369115918104</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9326767447068238</v>
+        <v>1.9310254634612301</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12003,27 +12023,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>575150.03735121572</v>
+        <v>574658.62849420856</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>0.61760086632088762</v>
+        <v>0.6170731874265194</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>0.72658925449516198</v>
+        <v>0.72596845579590519</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>0.72658925449516198</v>
+        <v>0.72596845579590519</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>0.72658925449516198</v>
+        <v>0.72596845579590519</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>0.96633837235341191</v>
+        <v>0.96551273173061503</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86A0D02C-F45F-4C68-B94C-397C0B47E73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44E336C6-F3CD-4D21-8A72-DF95561EFA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.7591140455929548E-2</v>
+        <v>2.7368378223794881E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4268,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>4844.4402484800003</v>
+        <v>4876.1032566399999</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4358,7 +4358,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.0275882065686373</v>
+        <v>1.0359521600604618</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-12.32708139055033</v>
+        <v>-12.427416461332024</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.7591140455929548E-2</v>
+        <v>2.7368378223794881E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9768,7 +9768,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9862,11 +9862,11 @@
       <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>-156425.69635273144</v>
+        <v>-156922.45664247137</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0354158932265622</v>
+        <v>1.0355283632988768</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -10954,11 +10954,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.0275882065686373</v>
+        <v>1.0359521600604618</v>
       </c>
       <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>61031.546352731071</v>
+        <v>61528.306642471005</v>
       </c>
       <c r="F53" s="86"/>
       <c r="G53" s="86"/>
@@ -11639,17 +11639,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.112220308422545E-2</v>
+        <v>-8.0467247807418832E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.112220308422545E-2</v>
+        <v>-8.0467247807418832E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.112220308422545E-2</v>
+        <v>-8.0467247807418832E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11690,17 +11690,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7591140455929548E-2</v>
+        <v>2.7368378223794881E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7591140455929548E-2</v>
+        <v>2.7368378223794881E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.7591140455929548E-2</v>
+        <v>2.7368378223794881E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11760,14 +11760,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9090116695379447</v>
+        <v>-4.9186960985344825</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-4.9090116695379447</v>
+        <v>-4.9186960985344825</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11788,14 +11788,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9203637429267388</v>
+        <v>2.9125598872900804</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.9203637429267388</v>
+        <v>2.9125598872900804</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11838,21 +11838,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-1931955.1683322683</v>
+        <v>-1935766.5022446136</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.4406463954020827</v>
+        <v>-2.4454612681938097</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.4406463954020827</v>
+        <v>-2.4454612681938097</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.2459746006865489</v>
+        <v>-3.2523782136052106</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11862,14 +11862,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-65143.182061213389</v>
+        <v>-65568.954492986028</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.2295632470586313E-2</v>
+        <v>-8.2833512421374475E-2</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11879,18 +11879,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-101658.813992608</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-0.14768986635854653</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-0.1284259707465622</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-1997098.3503934816</v>
+        <v>-2102994.2707302077</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11962,27 +11962,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>1149317.2569884171</v>
+        <v>1146246.0279416996</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2341463748530388</v>
+        <v>1.2308484637050916</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4519369115918104</v>
+        <v>1.4480570161236372</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>1.4519369115918104</v>
+        <v>1.4480570161236372</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4519369115918104</v>
+        <v>1.4480570161236372</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9310254634612301</v>
+        <v>1.9258653377802899</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12023,27 +12023,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>574658.62849420856</v>
+        <v>573123.0139708498</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>0.6170731874265194</v>
+        <v>0.6154242318525458</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>0.72596845579590519</v>
+        <v>0.72402850806181862</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>0.72596845579590519</v>
+        <v>0.72402850806181862</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>0.72596845579590519</v>
+        <v>0.72402850806181862</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>0.96551273173061503</v>
+        <v>0.96293266889014495</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{224319FB-3B51-413D-8A28-6F6433092967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A13990B-6169-4B32-914D-B02782D5445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.4934734339772922E-2</v>
+        <v>2.5007267217933688E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4481,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.75</v>
+        <v>6.73</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>5343.132627</v>
+        <v>5327.3011229200001</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4571,7 +4571,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4702,7 +4702,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.1370616647424132</v>
+        <v>1.1337636492307104</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-13.640339192057613</v>
+        <v>-13.600775770270385</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.4934734339772922E-2</v>
+        <v>2.5007267217933688E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10067,11 +10067,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-162927.65345404652</v>
+        <v>-162731.77441875997</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.0368879826839403</v>
+        <v>1.036843634273412</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11159,11 +11159,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.1370616647424132</v>
+        <v>1.1337636492307104</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>67533.503454046149</v>
+        <v>67337.624418759588</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.12821286363854431</v>
+        <v>-0.12820482818559265</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11339,7 +11339,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-0.12821286363854431</v>
+        <v>-0.12820482818559265</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-0.12821286363854431</v>
+        <v>-0.12820482818559265</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11871,17 +11871,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.3311959909491978E-2</v>
+        <v>-7.3525217744261059E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.3311959909491978E-2</v>
+        <v>-7.3525217744261059E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.3311959909491978E-2</v>
+        <v>-7.3525217744261059E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11922,17 +11922,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4934734339772922E-2</v>
+        <v>2.5007267217933688E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4934734339772922E-2</v>
+        <v>2.5007267217933688E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4934734339772922E-2</v>
+        <v>2.5007267217933688E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11985,21 +11985,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.944199738807499</v>
+        <v>-5.0983954121029287</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.944199738807499</v>
+        <v>-5.0983954121029287</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12020,14 +12020,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7353397059631885</v>
+        <v>2.8742870555071214</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.7353397059631885</v>
+        <v>2.8742870555071214</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12070,21 +12070,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3093798.7151233954</v>
+        <v>-2006487.6658850734</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-3.908407817083916</v>
+        <v>-2.5348035862491134</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-3.908407817083916</v>
+        <v>-2.5348035862491134</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-4.6377146727947691</v>
+        <v>-3.3712003812573168</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12094,14 +12094,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-71849.097861632428</v>
+        <v>-71636.211645746109</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-9.0767241695499629E-2</v>
+        <v>-9.0498301720105562E-2</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12112,17 +12112,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-101490.12369010488</v>
+        <v>-101483.76302479545</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-0.12821286363854431</v>
+        <v>-0.12820482818559265</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-0.12821286363854431</v>
+        <v>-0.12820482818559265</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12189,23 +12189,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5287507192035577</v>
+        <v>1.2146743563820903</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7985302578865385</v>
+        <v>1.4290286545671651</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.7985302578865385</v>
+        <v>1.4290286545671651</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7985302578865385</v>
+        <v>1.4290286545671651</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.134135063901565</v>
+        <v>1.9005582804280454</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12244,23 +12244,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.76437535960177883</v>
+        <v>0.60733717819104516</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.89926512894326927</v>
+        <v>0.71451432728358255</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.89926512894326927</v>
+        <v>0.71451432728358255</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.89926512894326927</v>
+        <v>0.71451432728358255</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.0670675319507825</v>
+        <v>0.95027914021402271</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A13990B-6169-4B32-914D-B02782D5445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7066348-92FB-40A9-BC57-22E3EEE20E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>281</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3670,7 +3671,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.5007267217933688E-2</v>
+        <v>2.5081804527078051E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4386,7 +4387,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4409,6 +4410,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4427,8 +4431,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4464,24 +4468,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0710.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.73</v>
+        <v>6.71</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4491,7 +4498,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>京东方精电</v>
       </c>
@@ -4520,11 +4527,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>5327.3011229200001</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>5311.4696188400003</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4547,11 +4554,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4619,10 +4626,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4669,7 +4676,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4743,7 +4750,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.1337636492307104</v>
+        <v>1.130394366469252</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4759,7 +4766,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-13.600775770270385</v>
+        <v>-13.560357417312671</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4791,7 +4798,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.5007267217933688E-2</v>
+        <v>2.5081804527078051E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4810,10 +4817,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4832,11 +4839,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="312">
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="312"/>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5818,15 +5825,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5854,7 +5862,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -10067,11 +10075,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-162731.77441875997</v>
+        <v>-162531.66260770865</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.036843634273412</v>
+        <v>1.0367983275322639</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11159,11 +11167,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.1337636492307104</v>
+        <v>1.130394366469252</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>67337.624418759588</v>
+        <v>67137.512607708282</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11871,17 +11879,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.3525217744261059E-2</v>
+        <v>-7.3744368914884798E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.3525217744261059E-2</v>
+        <v>-7.3744368914884798E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.3525217744261059E-2</v>
+        <v>-7.3744368914884798E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11922,17 +11930,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5007267217933688E-2</v>
+        <v>2.5081804527078051E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5007267217933688E-2</v>
+        <v>2.5081804527078051E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5007267217933688E-2</v>
+        <v>2.5081804527078051E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11981,7 +11989,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11992,14 +12000,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.0983954121029287</v>
+        <v>-5.5763537323960328</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.0983954121029287</v>
+        <v>-5.5763537323960328</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12020,14 +12028,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8742870555071214</v>
+        <v>3.1486076632850559</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>2.8742870555071214</v>
+        <v>3.1486076632850559</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12070,21 +12078,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2006487.6658850734</v>
+        <v>-2194589.4894899433</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.5348035862491134</v>
+        <v>-2.7724333435410933</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.5348035862491134</v>
+        <v>-2.7724333435410933</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.3712003812573168</v>
+        <v>-3.786399717497575</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12094,14 +12102,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-71636.211645746109</v>
+        <v>-71423.325429859775</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-9.0498301720105562E-2</v>
+        <v>-9.0229361744711467E-2</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12189,23 +12197,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.2146743563820903</v>
+        <v>1.3306023069521551</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.4290286545671651</v>
+        <v>1.5654144787672413</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.4290286545671651</v>
+        <v>1.5654144787672413</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.4290286545671651</v>
+        <v>1.5654144787672413</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>1.9005582804280454</v>
+        <v>2.1379359593909171</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12244,23 +12252,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.60733717819104516</v>
+        <v>0.66530115347607754</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.71451432728358255</v>
+        <v>0.78270723938362063</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.71451432728358255</v>
+        <v>0.78270723938362063</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.71451432728358255</v>
+        <v>0.78270723938362063</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>0.95027914021402271</v>
+        <v>1.0689679796954585</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7066348-92FB-40A9-BC57-22E3EEE20E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{278088B7-EEEB-402F-B3B3-FF579B8B7F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.5081804527078051E-2</v>
+        <v>2.5007267217933688E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4468,27 +4468,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0710.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.71</v>
+        <v>6.73</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4498,40 +4498,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>京东方精电</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>791575204</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>5311.4696188400003</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>5327.3011229200001</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4554,11 +4554,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4709,7 +4709,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.130394366469252</v>
+        <v>1.1337636492307104</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-13.560357417312671</v>
+        <v>-13.600775770270385</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.5081804527078051E-2</v>
+        <v>2.5007267217933688E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4817,10 +4817,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4839,11 +4839,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="313">
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="313"/>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5826,15 +5826,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10075,11 +10075,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="175">
         <f>(E49-I49-E53)</f>
-        <v>-162531.66260770865</v>
+        <v>-162731.77441875997</v>
       </c>
       <c r="E6" s="176">
         <f>1-D6/D3</f>
-        <v>1.0367983275322639</v>
+        <v>1.036843634273412</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11167,11 +11167,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.130394366469252</v>
+        <v>1.1337636492307104</v>
       </c>
       <c r="E53" s="182">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>67137.512607708282</v>
+        <v>67337.624418759588</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11207,7 +11207,7 @@
         <f>I15+I34</f>
         <v>635839</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11218,11 +11218,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11234,11 +11234,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11879,17 +11879,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.3744368914884798E-2</v>
+        <v>-7.3525217744261059E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.3744368914884798E-2</v>
+        <v>-7.3525217744261059E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.3744368914884798E-2</v>
+        <v>-7.3525217744261059E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11930,17 +11930,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5081804527078051E-2</v>
+        <v>2.5007267217933688E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5081804527078051E-2</v>
+        <v>2.5007267217933688E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5081804527078051E-2</v>
+        <v>2.5007267217933688E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11993,21 +11993,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.5763537323960328</v>
+        <v>-6.0260179345151208</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-5.5763537323960328</v>
+        <v>-6.0260179345151208</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12028,14 +12028,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1486076632850559</v>
+        <v>3.070673934357063</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1486076632850559</v>
+        <v>3.070673934357063</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12078,21 +12078,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2194589.4894899433</v>
+        <v>-2727289.4970052089</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-2.7724333435410933</v>
+        <v>-3.4453953120608474</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-2.7724333435410933</v>
+        <v>-3.4453953120608474</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-3.786399717497575</v>
+        <v>-4.421110147003418</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12102,14 +12102,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-71423.325429859775</v>
+        <v>-71636.211645746109</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-9.0229361744711467E-2</v>
+        <v>-9.0498301720105562E-2</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12197,23 +12197,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.3306023069521551</v>
+        <v>1.4923176199075929</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.5654144787672413</v>
+        <v>1.7556677881265799</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>1.5654144787672413</v>
+        <v>1.7556677881265799</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.5654144787672413</v>
+        <v>1.7556677881265799</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.1379359593909171</v>
+        <v>2.2528621449277657</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12252,23 +12252,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.66530115347607754</v>
+        <v>0.74615880995379646</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.78270723938362063</v>
+        <v>0.87783389406328993</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.78270723938362063</v>
+        <v>0.87783389406328993</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.78270723938362063</v>
+        <v>0.87783389406328993</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.0689679796954585</v>
+        <v>1.1264310724638829</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07C9068-BB64-47D0-9D24-8A9AD5F8854C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{724CDC02-CFD3-400B-99EB-7A246C9B1532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.500648446576674E-2</v>
+        <v>2.5474930838749858E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4502,27 +4502,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0710.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.73</v>
+        <v>6.61</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4532,7 +4532,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>京东方精电</v>
       </c>
@@ -4561,11 +4561,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>5327.3011229200001</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>5232.3120984400002</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4588,11 +4588,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4612,7 +4612,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.1337991382637431</v>
+        <v>1.1129502457830169</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-13.601201501313104</v>
+        <v>-13.351095483289649</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.500648446576674E-2</v>
+        <v>2.5474930838749858E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4851,10 +4851,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4873,11 +4873,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="313">
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="313"/>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5860,15 +5860,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10211,11 +10211,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-162733.88221889886</v>
+        <v>-161495.6039477911</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>1.0368441114943956</v>
+        <v>1.0365637564628574</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11303,11 +11303,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.1337991382637431</v>
+        <v>1.1129502457830169</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>67339.732218898498</v>
+        <v>66101.453947790724</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.12820081524782537</v>
+        <v>-0.12827368023716518</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-0.12820081524782537</v>
+        <v>-0.12827368023716518</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-0.12820081524782537</v>
+        <v>-0.12827368023716518</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -12015,17 +12015,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.3522916332314961E-2</v>
+        <v>-7.4900220828441305E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.3522916332314961E-2</v>
+        <v>-7.4900220828441305E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.3522916332314961E-2</v>
+        <v>-7.4900220828441305E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12066,17 +12066,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.500648446576674E-2</v>
+        <v>2.5474930838749858E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.500648446576674E-2</v>
+        <v>2.5474930838749858E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.500648446576674E-2</v>
+        <v>2.5474930838749858E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12136,14 +12136,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-6.0761049315643385</v>
+        <v>-6.0434873358777486</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-6.0761049315643385</v>
+        <v>-6.0434873358777486</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12164,14 +12164,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0961565101205979</v>
+        <v>3.1035833572792977</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.0961565101205979</v>
+        <v>3.1035833572792977</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12214,21 +12214,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2749958.1552258311</v>
+        <v>-2735195.8981100535</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-3.4740327151857464</v>
+        <v>-3.4553834989884975</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-3.4740327151857464</v>
+        <v>-3.4553834989884975</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-4.466118513423539</v>
+        <v>-4.4421436068674511</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12238,14 +12238,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-71636.211645746094</v>
+        <v>-70358.894350428178</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-9.0498301720105548E-2</v>
+        <v>-8.8884661867741091E-2</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12256,17 +12256,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-101480.58648276368</v>
+        <v>-101538.26460156479</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-0.12820081524782537</v>
+        <v>-0.12827368023716518</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-0.12820081524782537</v>
+        <v>-0.12827368023716518</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12333,23 +12333,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5047019034966336</v>
+        <v>1.5083112788690172</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7702375335254514</v>
+        <v>1.7744838574929613</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>1.7702375335254514</v>
+        <v>1.7744838574929613</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7702375335254514</v>
+        <v>1.7744838574929613</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.2757674638687235</v>
+        <v>2.2812264182425244</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12388,23 +12388,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>0.75235095174831679</v>
+        <v>0.75415563943450858</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>0.88511876676272572</v>
+        <v>0.88724192874648067</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>0.88511876676272572</v>
+        <v>0.88724192874648067</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>0.88511876676272572</v>
+        <v>0.88724192874648067</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>1.1378837319343618</v>
+        <v>1.1406132091212622</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0710.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0710.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{724CDC02-CFD3-400B-99EB-7A246C9B1532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE255D4-4A89-4924-A21C-D006F1540E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.5474930838749858E-2</v>
+        <v>2.7801441310783621E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4502,27 +4502,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0710.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>6.61</v>
+        <v>6.04</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4532,40 +4532,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>京东方精电</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>791575204</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>5232.3120984400002</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>4781.11423216</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4588,11 +4588,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4612,7 +4612,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>1.1129502457830169</v>
+        <v>1.0198151319332753</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-13.351095483289649</v>
+        <v>-12.233834579159907</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>2.5474930838749858E-2</v>
+        <v>2.7801441310783621E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4851,10 +4851,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4873,11 +4873,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="314">
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="314"/>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5860,15 +5860,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -10211,11 +10211,11 @@
       <c r="C6" s="3"/>
       <c r="D6" s="169">
         <f>(E49-I49-E53)</f>
-        <v>-161495.6039477911</v>
+        <v>-155964.03013091339</v>
       </c>
       <c r="E6" s="170">
         <f>1-D6/D3</f>
-        <v>1.0365637564628574</v>
+        <v>1.0353113687015039</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -11303,11 +11303,11 @@
       </c>
       <c r="D53" s="34">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1.1129502457830169</v>
+        <v>1.0198151319332753</v>
       </c>
       <c r="E53" s="176">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>66101.453947790724</v>
+        <v>60569.880130913021</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -11343,7 +11343,7 @@
         <f>I15+I34</f>
         <v>635839</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11354,11 +11354,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11370,11 +11370,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.12827368023716518</v>
+        <v>-0.12791672511292893</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-0.12827368023716518</v>
+        <v>-0.12791672511292893</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-0.12827368023716518</v>
+        <v>-0.12791672511292893</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -12015,17 +12015,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.4900220828441305E-2</v>
+        <v>-8.1740519992274538E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.4900220828441305E-2</v>
+        <v>-8.1740519992274538E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-7.4900220828441305E-2</v>
+        <v>-8.1740519992274538E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12066,17 +12066,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5474930838749858E-2</v>
+        <v>2.7801441310783621E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5474930838749858E-2</v>
+        <v>2.7801441310783621E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.5474930838749858E-2</v>
+        <v>2.7801441310783621E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12136,14 +12136,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-6.0434873358777486</v>
+        <v>-5.8503893115645429</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-6.0434873358777486</v>
+        <v>-5.8503893115645429</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12164,14 +12164,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1035833572792977</v>
+        <v>3.1231287579870122</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>3.1035833572792977</v>
+        <v>3.1231287579870122</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12214,21 +12214,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-2735195.8981100535</v>
+        <v>-2647802.4951489586</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-3.4553834989884975</v>
+        <v>-3.3449790768698193</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-3.4553834989884975</v>
+        <v>-3.3449790768698193</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-4.4421436068674511</v>
+        <v>-4.3002107944812291</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12238,14 +12238,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-70358.894350428178</v>
+        <v>-64291.637197668104</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-8.8884661867741091E-2</v>
+        <v>-8.1219872569010018E-2</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12256,17 +12256,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-101538.26460156479</v>
+        <v>-101255.70777627865</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-0.12827368023716518</v>
+        <v>-0.12791672511292893</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-0.12827368023716518</v>
+        <v>-0.12791672511292893</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12333,23 +12333,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.5083112788690172</v>
+        <v>1.5178101532164114</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7744838574929613</v>
+        <v>1.7856590037840134</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>1.7744838574929613</v>
+        <v>1.7856590037840134</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7744838574929613</v>
+        <v>1.7856590037840134</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.2812264182425244</v>
+        <v>2.2955928712475635</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12388,23 +12388,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>0.75415563943450858</v>
+        <v>0.75890507660820572</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>0.88724192874648067</v>
+        <v>0.89282950189200672</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>0.88724192874648067</v>
+        <v>0.89282950189200672</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>0.88724192874648067</v>
+        <v>0.89282950189200672</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>1.1406132091212622</v>
+        <v>1.1477964356237818</v>
       </c>
       <c r="K106" s="75"/>
     </row>
